--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA88958-1E8D-4240-A0F9-E2AD138C37EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF53A1A-7510-4A2E-97BB-FD10DF910694}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Day</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>HiperLink</t>
+  </si>
+  <si>
+    <t>Realização da Etapa 1</t>
   </si>
 </sst>
 </file>
@@ -243,22 +246,22 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -330,11 +333,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A5:E11" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -642,7 +645,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,17 +788,25 @@
       </c>
       <c r="H6" s="4">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>0.30208333333333337</v>
+        <v>0.38541666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E7" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF53A1A-7510-4A2E-97BB-FD10DF910694}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AC4D75-4E45-4774-9796-3DD87F727ABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Day</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Realização da Etapa 1</t>
+  </si>
+  <si>
+    <t>Continuação da Etapa 1</t>
   </si>
 </sst>
 </file>
@@ -314,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:E8" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:E14" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="10"/>
@@ -330,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A5:E11" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +791,7 @@
       </c>
       <c r="H6" s="4">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>0.38541666666666663</v>
+        <v>0.47569444444444431</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,11 +813,79 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.64236111111111105</v>
+      </c>
       <c r="E8" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
@@ -831,10 +902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +1047,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AC4D75-4E45-4774-9796-3DD87F727ABE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9C62B-4593-4BCA-A0BB-8DB025A15531}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Day</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Continuação da Etapa 1</t>
+  </si>
+  <si>
+    <t>Etapa 1</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +794,7 @@
       </c>
       <c r="H6" s="4">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>0.47569444444444431</v>
+        <v>0.51736111111111105</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,13 +834,21 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3">
+        <v>44273</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="E9" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -905,7 +916,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9C62B-4593-4BCA-A0BB-8DB025A15531}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C8EDE-4351-4773-9226-8DCC84DE7687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Day</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Total (hours spent)</t>
   </si>
   <si>
-    <t>Reunião com orientador</t>
-  </si>
-  <si>
     <t>Entrega Etapa 0</t>
   </si>
   <si>
@@ -121,7 +118,7 @@
     <t>Continuação da Etapa 1</t>
   </si>
   <si>
-    <t>Etapa 1</t>
+    <t>Reunião com LBarros</t>
   </si>
 </sst>
 </file>
@@ -651,7 +648,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +687,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4">
         <v>0.64930555555555558</v>
@@ -700,7 +697,7 @@
         <v>7.6388888888888951E-2</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3">
         <v>44260</v>
@@ -714,7 +711,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4">
         <v>0.60416666666666663</v>
@@ -724,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
         <v>44281</v>
@@ -738,7 +735,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
         <v>0.67708333333333337</v>
@@ -748,7 +745,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="3">
         <v>44370</v>
@@ -762,7 +759,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4">
         <v>0.8125</v>
@@ -780,7 +777,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4">
         <v>0.66666666666666663</v>
@@ -794,7 +791,7 @@
       </c>
       <c r="H6" s="4">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>0.51736111111111105</v>
+        <v>0.62152777777777768</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -805,7 +802,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
         <v>0.66666666666666663</v>
@@ -823,7 +820,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4">
         <v>0.64236111111111105</v>
@@ -841,7 +838,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4">
         <v>0.59027777777777779</v>
@@ -852,13 +849,21 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E10" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,7 +921,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +935,7 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8">
         <f>SUMPRODUCT(Tabela2[QTD], Tabela2[Preço_uni])</f>
@@ -939,27 +944,27 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -974,10 +979,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -992,10 +997,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1010,10 +1015,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1028,10 +1033,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C8EDE-4351-4773-9226-8DCC84DE7687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70C3B4-AA51-43F9-98C4-9D892961249B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Day</t>
   </si>
@@ -648,7 +648,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,7 @@
       </c>
       <c r="H6" s="4">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>0.62152777777777768</v>
+        <v>0.72152777777777766</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -867,13 +867,21 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="E11" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70C3B4-AA51-43F9-98C4-9D892961249B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B27E8D9-0FDE-4238-B822-1EBC592838BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Day</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Reunião com LBarros</t>
+  </si>
+  <si>
+    <t>Discussão de ideias</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +794,7 @@
       </c>
       <c r="H6" s="4">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>0.72152777777777766</v>
+        <v>0.74236111111111103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -885,13 +888,21 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.6875</v>
+      </c>
       <c r="E12" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B27E8D9-0FDE-4238-B822-1EBC592838BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66260072-CF2E-4E91-AF5F-C3993BDB110E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Discussão de ideias</t>
+  </si>
+  <si>
+    <t>Working Sessions</t>
+  </si>
+  <si>
+    <t>Etapa 1</t>
   </si>
 </sst>
 </file>
@@ -205,7 +211,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +249,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -320,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:E14" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:E21" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="10"/>
@@ -648,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +677,7 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -789,12 +804,12 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>0.74236111111111103</v>
+      <c r="G6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="15">
+        <f>COUNT(Tabela1[[#All],[Day]])</f>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,6 +847,13 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="16">
+        <f>SUM(Tabela1[[#All],[Duration]])</f>
+        <v>1.0618055555555554</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -906,21 +928,123 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E13" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0.11458333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E14" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.8125</v>
+      </c>
+      <c r="E15" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E16" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0.11458333333333326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
@@ -940,7 +1064,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66260072-CF2E-4E91-AF5F-C3993BDB110E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B00449-F3B6-4124-BFD8-37AADD00EC53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Day</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Working Sessions</t>
-  </si>
-  <si>
-    <t>Etapa 1</t>
   </si>
 </sst>
 </file>
@@ -213,9 +210,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,14 +244,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -265,7 +262,14 @@
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -335,14 +339,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:E21" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="8">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -351,14 +355,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="1">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -677,380 +681,394 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44253</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.64930555555555558</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>44260</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44258</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>44281</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44263</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.375E-2</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>44370</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44263</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.76388888888888884</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.8125</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>4.861111111111116E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44265</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44270</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>44272</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.55208333333333337</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.64236111111111105</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>1.0618055555555554</v>
+        <v>1.103472222222222</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>44273</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>44277</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.5625</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.10416666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>44277</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.85833333333333339</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>44278</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.6875</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>44279</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.5</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>44279</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.73611111111111116</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>44279</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.75</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.8125</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>44279</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.86458333333333337</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333326</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
-        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+      <c r="A17" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E17" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A21">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A20">
+    <cfRule type="duplicateValues" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -1077,151 +1095,151 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <f>SUMPRODUCT(Tabela2[QTD], Tabela2[Preço_uni])</f>
         <v>37.770000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>8.24</v>
       </c>
-      <c r="E6" s="10" t="str">
+      <c r="E6" s="9" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/modulos-bluetooth/4364-bluetooth-module-hc-05.html",Tabela2[[#This Row],[Produto]])</f>
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1.05</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="9" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensores-opticos/5913-ir-emitter-and-receiver-led-5mm-940nm.html",Tabela2[[#This Row],[Produto]])</f>
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>12.18</v>
       </c>
-      <c r="E8" s="10" t="str">
+      <c r="E8" s="9" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/cameras/3928-ov7670-camera-module.html",Tabela2[[#This Row],[Produto]])</f>
         <v>OV7670 Camera Module</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>10.82</v>
       </c>
-      <c r="E9" s="10" t="str">
+      <c r="E9" s="9" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensores-opticos/4048-tcs3200-color-sensor.html",Tabela2[[#This Row],[Produto]])</f>
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>4.43</v>
       </c>
-      <c r="E10" s="10" t="str">
+      <c r="E10" s="9" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensor-ultrasom/8220-us-015-modulo-sensor-de-distancia-ultrassonico-33-5v.html",Tabela2[[#This Row],[Produto]])</f>
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
         <v>0</v>
       </c>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B00449-F3B6-4124-BFD8-37AADD00EC53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3CE011-262A-42A8-838D-2DC9F7824A76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Working Sessions</t>
+  </si>
+  <si>
+    <t>Entrega Etapa 1</t>
   </si>
 </sst>
 </file>
@@ -264,66 +267,66 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,14 +342,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E21" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="7">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -355,14 +358,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -670,7 +673,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +816,7 @@
       </c>
       <c r="H6" s="13">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1022,10 +1025,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="E18" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
@@ -1064,7 +1075,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3CE011-262A-42A8-838D-2DC9F7824A76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BAD689-32AC-4ACD-B039-CCC2EF54F8EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
-    <sheet name="Components" sheetId="2" r:id="rId2"/>
+    <sheet name="TimeTable_Team1" sheetId="3" r:id="rId2"/>
+    <sheet name="TimeTable_Team2" sheetId="6" r:id="rId3"/>
+    <sheet name="TimeTable_Team3" sheetId="7" r:id="rId4"/>
+    <sheet name="Components" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Day</t>
   </si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>Entrega Etapa 1</t>
+  </si>
+  <si>
+    <t>Group Stats</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +200,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -206,12 +217,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,74 +271,186 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
+    <cellStyle name="Cor2" xfId="3" builtinId="33"/>
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,14 +466,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:E21" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="32">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -358,14 +482,62 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="18">
+      <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="11">
+      <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="4">
+      <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="25">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -670,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,13 +983,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="13">
-        <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>17</v>
-      </c>
+      <c r="G6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -836,6 +1005,13 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
+      <c r="G7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="13">
+        <f>COUNT(Tabela1[[#All],[Day]])</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -854,11 +1030,11 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="14">
-        <f>SUM(Tabela1[[#All],[Duration]])</f>
+        <f>SUM(Tabela1[[#All],[Duration]]) + TimeTable_Team1!H4 + TimeTable_Team2!H4 + TimeTable_Team3!H4</f>
         <v>1.103472222222222</v>
       </c>
     </row>
@@ -879,6 +1055,8 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>4.1666666666666741E-2</v>
       </c>
+      <c r="G9" s="14"/>
+      <c r="H9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -915,6 +1093,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.9999999999999978E-2</v>
       </c>
+      <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -933,6 +1112,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
+      <c r="H12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -951,6 +1131,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333331</v>
       </c>
+      <c r="H13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -969,6 +1150,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.777777777777779E-2</v>
       </c>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -987,6 +1169,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>6.25E-2</v>
       </c>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1005,8 +1188,9 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333326</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1023,8 +1207,9 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>4.166666666666663E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1041,8 +1226,9 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1051,8 +1237,9 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1062,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1072,10 +1259,43 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A21">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  <conditionalFormatting sqref="A1:A24">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1089,11 +1309,896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2A9EC5-EFB6-4F84-81FA-9F8B291BBBD8}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="13">
+        <f>COUNT(Tabela14[[#All],[Day]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14">
+        <f>SUM(Tabela14[[#All],[Duration]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A24">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A20">
+    <cfRule type="duplicateValues" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F1DF70-9EAC-49DC-AC3E-822A07B27930}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="13">
+        <f>COUNT(Tabela147[[#All],[Day]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14">
+        <f>SUM(Tabela147[[#All],[Duration]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A24">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A20">
+    <cfRule type="duplicateValues" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="13">
+        <f>COUNT(Tabela1478[[#All],[Day]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14">
+        <f>SUM(Tabela1478[[#All],[Duration]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A24">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A20">
+    <cfRule type="duplicateValues" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BAD689-32AC-4ACD-B039-CCC2EF54F8EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDD9AE5-2329-4E0D-AE07-EF32EDCA7F03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>Day</t>
   </si>
@@ -133,7 +133,37 @@
     <t>Entrega Etapa 1</t>
   </si>
   <si>
-    <t>Group Stats</t>
+    <t>Members Hours Spent</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Duarte</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Diogo</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Group Reunions</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Deadlines</t>
+  </si>
+  <si>
+    <t>Team Stats</t>
   </si>
 </sst>
 </file>
@@ -223,7 +253,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,10 +301,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -314,6 +350,33 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -396,33 +459,6 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -482,14 +518,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="25">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -498,14 +534,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="18">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -514,14 +550,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="11">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -530,14 +566,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="29"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="4">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -845,7 +881,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,6 +911,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -893,7 +933,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2">
@@ -917,7 +957,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
@@ -941,7 +981,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.375E-2</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2">
@@ -983,10 +1023,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="18"/>
+      <c r="G6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1005,7 +1045,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="13">
@@ -1030,11 +1070,11 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="14">
-        <f>SUM(Tabela1[[#All],[Duration]]) + TimeTable_Team1!H4 + TimeTable_Team2!H4 + TimeTable_Team3!H4</f>
+        <f>SUM(Tabela1[[#All],[Duration]])</f>
         <v>1.103472222222222</v>
       </c>
     </row>
@@ -1075,6 +1115,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.10416666666666663</v>
       </c>
+      <c r="G10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1093,7 +1137,13 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="H11"/>
+      <c r="G11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="14">
+        <f>$H$8 + TimeTable_Team1!H3</f>
+        <v>1.103472222222222</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1112,7 +1162,13 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="H12"/>
+      <c r="G12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="14">
+        <f>$H$8 + TimeTable_Team1!H3</f>
+        <v>1.103472222222222</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1131,7 +1187,13 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333331</v>
       </c>
-      <c r="H13"/>
+      <c r="G13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="14">
+        <f>$H$8 + TimeTable_Team2!H3</f>
+        <v>1.103472222222222</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1150,7 +1212,13 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="H14"/>
+      <c r="G14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="14">
+        <f>$H$8 + TimeTable_Team2!H3</f>
+        <v>1.103472222222222</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1169,7 +1237,13 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>6.25E-2</v>
       </c>
-      <c r="H15"/>
+      <c r="G15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="14">
+        <f>$H$8 + TimeTable_Team3!H3</f>
+        <v>1.103472222222222</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1188,7 +1262,13 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333326</v>
       </c>
-      <c r="H16"/>
+      <c r="G16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="14">
+        <f>$H$8 + TimeTable_Team3!H3</f>
+        <v>1.103472222222222</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1290,8 +1370,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
@@ -1313,7 +1395,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,6 +1425,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1370,6 +1456,13 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14">
+        <f>SUM(Tabela14[[#All],[Duration]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1380,13 +1473,6 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14">
-        <f>SUM(Tabela14[[#All],[Duration]])</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1397,6 +1483,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1407,6 +1497,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1417,6 +1511,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1589,6 +1687,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <conditionalFormatting sqref="A1:A24">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
@@ -1608,7 +1712,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,6 +1742,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1665,6 +1773,13 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14">
+        <f>SUM(Tabela147[[#All],[Duration]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1675,13 +1790,6 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14">
-        <f>SUM(Tabela147[[#All],[Duration]])</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1692,6 +1800,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1702,6 +1814,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1712,6 +1828,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1884,6 +2004,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <conditionalFormatting sqref="A1:A24">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
@@ -1903,7 +2029,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,6 +2059,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1960,6 +2090,13 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14">
+        <f>SUM(Tabela1478[[#All],[Duration]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1970,13 +2107,6 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14">
-        <f>SUM(Tabela1478[[#All],[Duration]])</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1987,6 +2117,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1997,6 +2131,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2007,6 +2145,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
+      <c r="G7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2179,6 +2321,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <conditionalFormatting sqref="A1:A24">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
@@ -2198,7 +2346,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDD9AE5-2329-4E0D-AE07-EF32EDCA7F03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9A4510-C91B-4C8E-B85D-7B3CE41DA11A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Day</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Team Stats</t>
+  </si>
+  <si>
+    <t>Diagrama geral do sistema. Deteção de quartos.</t>
+  </si>
+  <si>
+    <t>https://www.eztronics.nl/webshop2/catalog/Sensor/Distance-Range?product_id=598</t>
   </si>
 </sst>
 </file>
@@ -301,14 +307,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,6 +328,61 @@
   </cellStyles>
   <dxfs count="39">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -329,6 +390,34 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -336,6 +425,34 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -343,150 +460,39 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,14 +508,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="31">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -518,14 +524,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="23">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -534,14 +540,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -550,14 +556,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -566,14 +572,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -880,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,10 +917,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -933,7 +939,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2">
@@ -957,7 +963,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
@@ -981,7 +987,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.375E-2</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2">
@@ -1023,10 +1029,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1045,7 +1051,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="13">
@@ -1070,7 +1076,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="14">
@@ -1115,10 +1121,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1137,7 +1143,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="14">
@@ -1162,7 +1168,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="14">
@@ -1187,7 +1193,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333331</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="14">
@@ -1212,7 +1218,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="14">
@@ -1237,12 +1243,12 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="14">
         <f>$H$8 + TimeTable_Team3!H3</f>
-        <v>1.103472222222222</v>
+        <v>0.22847222222222197</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1262,12 +1268,12 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333326</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="14">
         <f>$H$8 + TimeTable_Team3!H3</f>
-        <v>1.103472222222222</v>
+        <v>0.22847222222222197</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1377,7 +1383,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1425,10 +1431,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1483,10 +1489,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1694,7 +1700,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1742,10 +1748,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1800,10 +1806,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2011,7 +2017,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2029,7 +2035,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,26 +2065,32 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>-0.875</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="13">
         <f>COUNT(Tabela1478[[#All],[Day]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,7 +2107,7 @@
       </c>
       <c r="H3" s="14">
         <f>SUM(Tabela1478[[#All],[Duration]])</f>
-        <v>0</v>
+        <v>-0.875</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2117,10 +2129,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2328,7 +2340,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2343,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,6 +2520,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9A4510-C91B-4C8E-B85D-7B3CE41DA11A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1977F368-CD74-42D4-8B8C-708120A6384D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,10 @@
     <t>Team Stats</t>
   </si>
   <si>
-    <t>Diagrama geral do sistema. Deteção de quartos.</t>
-  </si>
-  <si>
     <t>https://www.eztronics.nl/webshop2/catalog/Sensor/Distance-Range?product_id=598</t>
+  </si>
+  <si>
+    <t>Diagrama geral do sistema. Deteção de quartos e cruzamentos.</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="14">
         <f>$H$8 + TimeTable_Team3!H3</f>
-        <v>0.22847222222222197</v>
+        <v>1.2145833333333331</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="H16" s="14">
         <f>$H$8 + TimeTable_Team3!H3</f>
-        <v>0.22847222222222197</v>
+        <v>1.2145833333333331</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2034,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,12 +2078,14 @@
         <v>0.875</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.98611111111111116</v>
+      </c>
       <c r="E2" s="3">
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
-        <v>-0.875</v>
+        <v>0.11111111111111116</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>29</v>
@@ -2107,7 +2109,7 @@
       </c>
       <c r="H3" s="14">
         <f>SUM(Tabela1478[[#All],[Duration]])</f>
-        <v>-0.875</v>
+        <v>0.11111111111111116</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2357,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
   <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2522,7 +2524,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoaoMiranda\Desktop\ProjetosUM\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1977F368-CD74-42D4-8B8C-708120A6384D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55B17CE-0939-41BB-9AA5-8BB295F85126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Day</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Diagrama geral do sistema. Deteção de quartos e cruzamentos.</t>
+  </si>
+  <si>
+    <t>Estudo do seguidor de linha. Uso do DMA para ler 2 inputs do sensor</t>
   </si>
 </sst>
 </file>
@@ -890,18 +893,18 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -922,7 +925,7 @@
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44253</v>
       </c>
@@ -946,7 +949,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44258</v>
       </c>
@@ -970,7 +973,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -994,7 +997,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44263</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44265</v>
       </c>
@@ -1034,7 +1037,7 @@
       </c>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44270</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44272</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>1.103472222222222</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44273</v>
       </c>
@@ -1104,7 +1107,7 @@
       <c r="G9" s="14"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44277</v>
       </c>
@@ -1126,7 +1129,7 @@
       </c>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -1148,10 +1151,10 @@
       </c>
       <c r="H11" s="14">
         <f>$H$8 + TimeTable_Team1!H3</f>
-        <v>1.103472222222222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3256944444444441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44278</v>
       </c>
@@ -1173,10 +1176,10 @@
       </c>
       <c r="H12" s="14">
         <f>$H$8 + TimeTable_Team1!H3</f>
-        <v>1.103472222222222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3256944444444441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44279</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>1.103472222222222</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44279</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>1.103472222222222</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44279</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>1.2145833333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44279</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>1.2145833333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1295,7 +1298,7 @@
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1314,7 +1317,7 @@
       </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1325,7 +1328,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1335,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1345,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1355,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1365,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1400,22 +1403,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2A9EC5-EFB6-4F84-81FA-9F8B291BBBD8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1436,24 +1439,32 @@
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="E2" s="3">
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.2222222222222221</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="13">
         <f>COUNT(Tabela14[[#All],[Day]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1467,10 +1478,10 @@
       </c>
       <c r="H3" s="14">
         <f>SUM(Tabela14[[#All],[Duration]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2222222222222221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1480,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1494,7 +1505,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1508,7 +1519,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1522,7 +1533,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1532,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1542,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1552,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1562,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1572,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1582,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1592,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1602,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1612,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1622,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1632,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1642,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1652,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1662,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1672,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1682,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1721,18 +1732,18 @@
       <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1764,7 @@
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1770,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1787,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1797,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1811,7 +1822,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1825,7 +1836,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1839,7 +1850,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1849,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1859,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1869,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1879,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1889,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1899,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1909,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1919,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1929,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1939,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1949,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1959,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1969,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1979,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1989,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1999,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2034,22 +2045,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2081,7 @@
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2095,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -2112,7 +2123,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -2122,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -2136,7 +2147,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2150,7 +2161,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2164,7 +2175,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2174,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2184,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2194,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2204,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2214,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2224,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2234,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2244,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2254,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2264,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2274,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2284,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2294,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2304,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2314,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2324,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2363,16 +2374,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2381,7 +2392,7 @@
         <v>37.770000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2398,7 +2409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -2416,7 +2427,7 @@
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +2445,7 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2452,7 +2463,7 @@
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -2470,7 +2481,7 @@
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -2488,7 +2499,7 @@
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="1">
@@ -2502,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="1"/>
@@ -2512,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="1"/>
@@ -2522,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>42</v>
       </c>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoaoMiranda\Desktop\ProjetosUM\DWR-19\02Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/a88231_uminho_pt/Documents/Universidade/Github/dwr-19/02Others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55B17CE-0939-41BB-9AA5-8BB295F85126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{F55B17CE-0939-41BB-9AA5-8BB295F85126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D65F682B-4F48-49D7-9E7D-ED5C6148F979}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Day</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>Estudo do seguidor de linha. Uso do DMA para ler 2 inputs do sensor</t>
+  </si>
+  <si>
+    <t>Criação do modulo para a leitura de etiquetas RFID</t>
+  </si>
+  <si>
+    <t>MAUSER</t>
+  </si>
+  <si>
+    <t>Módulo Leitor RFID RC522</t>
   </si>
 </sst>
 </file>
@@ -262,7 +271,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,6 +331,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -893,18 +903,18 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -925,7 +935,7 @@
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44253</v>
       </c>
@@ -949,7 +959,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44258</v>
       </c>
@@ -973,7 +983,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -997,7 +1007,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44263</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44265</v>
       </c>
@@ -1037,7 +1047,7 @@
       </c>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44270</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44272</v>
       </c>
@@ -1087,7 +1097,7 @@
         <v>1.103472222222222</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44273</v>
       </c>
@@ -1107,7 +1117,7 @@
       <c r="G9" s="14"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44277</v>
       </c>
@@ -1129,7 +1139,7 @@
       </c>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>1.3256944444444441</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44278</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>1.3256944444444441</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44279</v>
       </c>
@@ -1201,10 +1211,10 @@
       </c>
       <c r="H13" s="14">
         <f>$H$8 + TimeTable_Team2!H3</f>
-        <v>1.103472222222222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.3048611111111108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44279</v>
       </c>
@@ -1226,10 +1236,10 @@
       </c>
       <c r="H14" s="14">
         <f>$H$8 + TimeTable_Team2!H3</f>
-        <v>1.103472222222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.3048611111111108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44279</v>
       </c>
@@ -1254,7 +1264,7 @@
         <v>1.2145833333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44279</v>
       </c>
@@ -1279,7 +1289,7 @@
         <v>1.2145833333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1298,7 +1308,7 @@
       </c>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1317,7 +1327,7 @@
       </c>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1328,7 +1338,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1338,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1348,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1358,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1368,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1403,22 +1413,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2A9EC5-EFB6-4F84-81FA-9F8B291BBBD8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1449,7 @@
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -1464,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1481,7 +1491,7 @@
         <v>0.2222222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1491,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1505,7 +1515,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1519,7 +1529,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1533,7 +1543,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1543,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1553,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1563,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1573,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1583,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1593,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1603,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1613,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1623,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1633,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1643,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1653,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1663,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1673,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1683,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1693,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1728,22 +1738,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F1DF70-9EAC-49DC-AC3E-822A07B27930}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1764,24 +1774,32 @@
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44300</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.97222222222222221</v>
+      </c>
       <c r="E2" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.20138888888888884</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="13">
         <f>COUNT(Tabela147[[#All],[Day]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1795,10 +1813,10 @@
       </c>
       <c r="H3" s="14">
         <f>SUM(Tabela147[[#All],[Duration]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.20138888888888884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1808,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1822,7 +1840,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1836,7 +1854,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1850,7 +1868,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1860,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1870,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1880,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1890,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1900,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1910,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1920,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1930,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1940,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1950,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1960,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1970,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1980,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1990,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2000,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2010,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2046,21 +2064,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2099,7 @@
       </c>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2106,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -2123,7 +2141,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -2133,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -2147,7 +2165,7 @@
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2161,7 +2179,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2175,7 +2193,7 @@
       </c>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2185,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2195,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2205,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2215,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2225,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2235,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2245,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2255,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2265,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2275,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2285,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2295,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2305,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2315,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2325,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2335,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2370,29 +2388,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
   <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="55.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="7">
         <f>SUMPRODUCT(Tabela2[QTD], Tabela2[Preço_uni])</f>
-        <v>37.770000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2409,7 +2427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -2427,7 +2445,7 @@
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2445,7 +2463,7 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2463,7 +2481,7 @@
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -2499,21 +2517,25 @@
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.44</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f>HYPERLINK("https://mauser.pt/catalog/product_info.php?cPath=1667_2604_2607&amp;products_id=096-8517",Tabela2[[#This Row],[Produto]])</f>
+        <v>Módulo Leitor RFID RC522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="1"/>
@@ -2523,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="1"/>
@@ -2533,16 +2555,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{3BE2CB3D-1045-4FA3-95C3-6C6F5D5C6679}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/a88231_uminho_pt/Documents/Universidade/Github/dwr-19/02Others/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{F55B17CE-0939-41BB-9AA5-8BB295F85126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D65F682B-4F48-49D7-9E7D-ED5C6148F979}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1308947F-E4D2-4B27-9AF2-2FD9009FF214}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Day</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>Módulo Leitor RFID RC522</t>
+  </si>
+  <si>
+    <t>Discussão de ideias. Estrutura do sistema a desenvolver.</t>
+  </si>
+  <si>
+    <t>Days to next Deadline</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +243,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -271,7 +285,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,13 +339,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -341,61 +364,6 @@
   </cellStyles>
   <dxfs count="39">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -403,34 +371,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -438,34 +378,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -473,39 +385,150 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,14 +544,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="32">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -537,14 +560,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="25">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -553,14 +576,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="18">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -569,14 +592,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="11">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -585,14 +608,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="4">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -899,22 +922,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -930,12 +953,12 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44253</v>
       </c>
@@ -959,7 +982,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44258</v>
       </c>
@@ -983,7 +1006,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -1007,7 +1030,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44263</v>
       </c>
@@ -1025,7 +1048,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44265</v>
       </c>
@@ -1042,12 +1065,15 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="23">
+        <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44270</v>
       </c>
@@ -1064,15 +1090,8 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="13">
-        <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44272</v>
       </c>
@@ -1089,15 +1108,12 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="14">
-        <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>1.103472222222222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44273</v>
       </c>
@@ -1114,10 +1130,15 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="13">
+        <f>COUNT(Tabela1[[#All],[Day]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44277</v>
       </c>
@@ -1134,12 +1155,15 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="14">
+        <f>SUM(Tabela1[[#All],[Duration]])</f>
+        <v>1.1729166666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -1156,15 +1180,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="14">
-        <f>$H$8 + TimeTable_Team1!H3</f>
-        <v>1.3256944444444441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="14"/>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44278</v>
       </c>
@@ -1181,15 +1200,12 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="14">
-        <f>$H$8 + TimeTable_Team1!H3</f>
-        <v>1.3256944444444441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44279</v>
       </c>
@@ -1206,15 +1222,15 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333331</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>34</v>
+      <c r="G13" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="H13" s="14">
-        <f>$H$8 + TimeTable_Team2!H3</f>
-        <v>1.3048611111111108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$H$10 + TimeTable_Team1!H3</f>
+        <v>1.3951388888888885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44279</v>
       </c>
@@ -1231,15 +1247,15 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>35</v>
+      <c r="G14" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="H14" s="14">
-        <f>$H$8 + TimeTable_Team2!H3</f>
-        <v>1.3048611111111108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$H$10 + TimeTable_Team1!H3</f>
+        <v>1.3951388888888885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44279</v>
       </c>
@@ -1256,15 +1272,15 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>36</v>
+      <c r="G15" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="H15" s="14">
-        <f>$H$8 + TimeTable_Team3!H3</f>
-        <v>1.2145833333333331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$H$10 + TimeTable_Team2!H3</f>
+        <v>1.3743055555555552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44279</v>
       </c>
@@ -1281,15 +1297,15 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333326</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>37</v>
+      <c r="G16" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="H16" s="14">
-        <f>$H$8 + TimeTable_Team3!H3</f>
-        <v>1.2145833333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <f>$H$10 + TimeTable_Team2!H3</f>
+        <v>1.3743055555555552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1306,9 +1322,15 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="14">
+        <f>$H$10 + TimeTable_Team3!H3</f>
+        <v>1.2840277777777775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1325,20 +1347,34 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
+      <c r="G18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="14">
+        <f>$H$10 + TimeTable_Team3!H3</f>
+        <v>1.2840277777777775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="E19" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1348,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1358,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1368,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1378,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1390,13 +1426,13 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1417,18 +1453,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1444,12 +1480,12 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -1474,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1491,7 +1527,7 @@
         <v>0.2222222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1501,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1510,12 +1546,12 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1524,12 +1560,12 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1538,12 +1574,12 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1553,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1563,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1573,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1583,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1593,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1603,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1613,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1623,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1633,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1643,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1653,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1663,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1673,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1683,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1693,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1703,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1721,7 +1757,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1742,18 +1778,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1769,12 +1805,12 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44300</v>
       </c>
@@ -1799,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1816,7 +1852,7 @@
         <v>0.20138888888888884</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1826,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1835,12 +1871,12 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1849,12 +1885,12 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1863,12 +1899,12 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1878,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1888,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1898,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1908,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1918,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1928,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1938,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1948,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1958,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1968,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1978,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1988,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1998,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2008,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2018,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2028,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2046,7 +2082,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2067,18 +2103,18 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2094,12 +2130,12 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2124,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -2141,7 +2177,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -2151,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -2160,12 +2196,12 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2174,12 +2210,12 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2188,12 +2224,12 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2203,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2213,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2223,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2233,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2243,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2253,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2263,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2273,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2283,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2293,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2303,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2313,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2323,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2333,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2343,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2353,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2371,7 +2407,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2388,20 +2424,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
   <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="55.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2410,7 +2446,7 @@
         <v>40.21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2427,7 +2463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -2445,7 +2481,7 @@
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2463,7 +2499,7 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2481,7 +2517,7 @@
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -2499,7 +2535,7 @@
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -2517,7 +2553,7 @@
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>46</v>
       </c>
@@ -2535,7 +2571,7 @@
         <v>Módulo Leitor RFID RC522</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="1"/>
@@ -2545,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="1"/>
@@ -2555,8 +2591,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="20" t="s">
         <v>42</v>
       </c>
     </row>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1308947F-E4D2-4B27-9AF2-2FD9009FF214}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E0D455-E007-45B6-AF2D-A13CA37C38A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Day</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Days to next Deadline</t>
+  </si>
+  <si>
+    <t>Implementação da deteção de obstáculos, quartos e cruzamentos.</t>
   </si>
 </sst>
 </file>
@@ -343,16 +346,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -364,6 +367,61 @@
   </cellStyles>
   <dxfs count="39">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -371,6 +429,34 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -378,6 +464,34 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -385,150 +499,39 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,14 +547,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="31">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -560,14 +563,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="23">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -576,14 +579,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -592,14 +595,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -608,14 +611,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -922,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -953,10 +956,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -1065,12 +1068,12 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1108,10 +1111,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="21"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -1200,10 +1203,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
@@ -1327,7 +1330,7 @@
       </c>
       <c r="H17" s="14">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.2840277777777775</v>
+        <v>1.447222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1352,7 +1355,7 @@
       </c>
       <c r="H18" s="14">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.2840277777777775</v>
+        <v>1.447222222222222</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1432,7 +1435,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1480,10 +1483,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -1546,10 +1549,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -1560,10 +1563,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
@@ -1574,10 +1577,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -1757,7 +1760,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1805,10 +1808,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -1871,10 +1874,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -1885,10 +1888,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
@@ -1899,10 +1902,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -2082,7 +2085,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2099,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2130,10 +2133,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -2157,24 +2160,32 @@
       </c>
       <c r="H2" s="13">
         <f>COUNT(Tabela1478[[#All],[Day]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="E3" s="3">
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.16319444444444442</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="14">
         <f>SUM(Tabela1478[[#All],[Duration]])</f>
-        <v>0.11111111111111116</v>
+        <v>0.27430555555555558</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -2196,10 +2207,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -2210,10 +2221,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
@@ -2224,10 +2235,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -2407,7 +2418,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3ano\2semestre\LPI II\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E0D455-E007-45B6-AF2D-A13CA37C38A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A361ED-3059-458A-AFA5-10B1A90CA819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Day</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Implementação da deteção de obstáculos, quartos e cruzamentos.</t>
+  </si>
+  <si>
+    <t>estudo do modulo RFID</t>
+  </si>
+  <si>
+    <t>Continuação da implementação do modulo RFID + documentação</t>
   </si>
 </sst>
 </file>
@@ -365,7 +371,14 @@
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -547,14 +560,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="32">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -563,14 +576,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -579,14 +592,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="16">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -595,14 +608,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="8">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -611,14 +624,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="1">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -925,22 +938,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -961,7 +974,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44253</v>
       </c>
@@ -985,7 +998,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44258</v>
       </c>
@@ -1009,7 +1022,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -1033,7 +1046,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44263</v>
       </c>
@@ -1051,7 +1064,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44265</v>
       </c>
@@ -1076,7 +1089,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44270</v>
       </c>
@@ -1094,7 +1107,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44272</v>
       </c>
@@ -1116,7 +1129,7 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44273</v>
       </c>
@@ -1141,7 +1154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44277</v>
       </c>
@@ -1166,7 +1179,7 @@
         <v>1.1729166666666664</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -1186,7 +1199,7 @@
       <c r="G11" s="14"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44278</v>
       </c>
@@ -1208,7 +1221,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44279</v>
       </c>
@@ -1233,7 +1246,7 @@
         <v>1.3951388888888885</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44279</v>
       </c>
@@ -1258,7 +1271,7 @@
         <v>1.3951388888888885</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44279</v>
       </c>
@@ -1280,10 +1293,10 @@
       </c>
       <c r="H15" s="14">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.3743055555555552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.5791666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44279</v>
       </c>
@@ -1305,10 +1318,10 @@
       </c>
       <c r="H16" s="14">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.3743055555555552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.5791666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1333,7 +1346,7 @@
         <v>1.447222222222222</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1358,7 +1371,7 @@
         <v>1.447222222222222</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44319</v>
       </c>
@@ -1377,7 +1390,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1387,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1397,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1407,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1417,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1435,7 +1448,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1456,18 +1469,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1501,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -1513,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1530,7 +1543,7 @@
         <v>0.2222222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -1540,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1554,7 +1567,7 @@
       </c>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1568,7 +1581,7 @@
       </c>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1582,7 +1595,7 @@
       </c>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1592,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1602,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1612,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1622,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1632,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1642,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1652,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1662,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1672,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1682,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1692,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1702,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1712,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1722,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1732,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1742,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1760,7 +1773,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1777,22 +1790,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F1DF70-9EAC-49DC-AC3E-822A07B27930}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1813,59 +1826,75 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44300</v>
+        <v>44288</v>
       </c>
       <c r="B2" s="3">
-        <v>0.77083333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3">
-        <v>0.97222222222222221</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="E2" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
-        <v>0.20138888888888884</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="13">
         <f>COUNT(Tabela147[[#All],[Day]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44300</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.97222222222222221</v>
+      </c>
       <c r="E3" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.20138888888888884</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="14">
         <f>SUM(Tabela147[[#All],[Duration]])</f>
-        <v>0.20138888888888884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="E4" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.16319444444444442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1879,7 +1908,7 @@
       </c>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1893,7 +1922,7 @@
       </c>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1907,7 +1936,7 @@
       </c>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1917,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1927,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1937,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1947,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1957,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1967,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1977,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1987,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1997,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2007,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2017,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2027,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2037,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2047,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2057,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2067,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2084,10 +2113,16 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+  <conditionalFormatting sqref="A1:A2 A4:A24">
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A20">
+  <conditionalFormatting sqref="A1:A2 A4:A20">
+    <cfRule type="duplicateValues" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2103,21 +2138,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2173,7 @@
       </c>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2163,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44321</v>
       </c>
@@ -2188,7 +2223,7 @@
         <v>0.27430555555555558</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -2198,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -2212,7 +2247,7 @@
       </c>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2226,7 +2261,7 @@
       </c>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2240,7 +2275,7 @@
       </c>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2250,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2260,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2270,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2280,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2290,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2300,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2310,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2320,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2330,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2340,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2350,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2360,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2370,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2380,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2390,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2400,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2418,7 +2453,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2439,16 +2474,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>40.21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -2492,7 +2527,7 @@
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2510,7 +2545,7 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2528,7 +2563,7 @@
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -2546,7 +2581,7 @@
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -2564,7 +2599,7 @@
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>46</v>
       </c>
@@ -2582,7 +2617,7 @@
         <v>Módulo Leitor RFID RC522</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="1"/>
@@ -2592,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="1"/>
@@ -2602,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>42</v>
       </c>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3ano\2semestre\LPI II\DWR-19\02Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A361ED-3059-458A-AFA5-10B1A90CA819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5FDBEF-7C31-403F-9864-819C010A445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>Day</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Continuação da implementação do modulo RFID + documentação</t>
+  </si>
+  <si>
+    <t>Testes ao sensor de obstáculos. Implementação dos sistemas de deteção.</t>
   </si>
 </sst>
 </file>
@@ -373,6 +376,61 @@
   </cellStyles>
   <dxfs count="40">
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -380,33 +438,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -440,34 +471,6 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -592,14 +595,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -608,14 +611,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -624,14 +627,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1086,7 +1089,7 @@
       </c>
       <c r="H6" s="21">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1343,7 +1346,7 @@
       </c>
       <c r="H17" s="14">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.447222222222222</v>
+        <v>1.072222222222222</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1368,7 +1371,7 @@
       </c>
       <c r="H18" s="14">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.447222222222222</v>
+        <v>1.072222222222222</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1790,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F1DF70-9EAC-49DC-AC3E-822A07B27930}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2120,7 +2123,7 @@
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2137,15 +2140,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
@@ -2195,7 +2198,7 @@
       </c>
       <c r="H2" s="13">
         <f>COUNT(Tabela1478[[#All],[Day]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2220,17 +2223,23 @@
       </c>
       <c r="H3" s="14">
         <f>SUM(Tabela1478[[#All],[Duration]])</f>
-        <v>0.27430555555555558</v>
+        <v>-0.10069444444444442</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2453,7 +2462,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5FDBEF-7C31-403F-9864-819C010A445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863A3AD4-5B0C-4C48-84AA-8CD6ADF82F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Day</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Team Stats</t>
   </si>
   <si>
-    <t>https://www.eztronics.nl/webshop2/catalog/Sensor/Distance-Range?product_id=598</t>
-  </si>
-  <si>
     <t>Diagrama geral do sistema. Deteção de quartos e cruzamentos.</t>
   </si>
   <si>
@@ -200,6 +197,24 @@
   </si>
   <si>
     <t>Testes ao sensor de obstáculos. Implementação dos sistemas de deteção.</t>
+  </si>
+  <si>
+    <t>botNroll</t>
+  </si>
+  <si>
+    <t>Sensor Sharp 2Y0A21YK</t>
+  </si>
+  <si>
+    <t>EZTronics</t>
+  </si>
+  <si>
+    <t>Ficha Shell ou KK 6 vias 2,54mm</t>
+  </si>
+  <si>
+    <t>Terminais para fichas shell ou KK</t>
+  </si>
+  <si>
+    <t>Cartão RFID Mifare 1k S50 compatível Tag 13,56MHz</t>
   </si>
 </sst>
 </file>
@@ -210,7 +225,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +278,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -297,7 +318,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,9 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -326,9 +344,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -354,7 +369,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,6 +381,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -376,59 +396,12 @@
   </cellStyles>
   <dxfs count="40">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -438,34 +411,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -480,34 +425,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -515,39 +432,142 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -563,14 +583,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="33">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -579,14 +599,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="26">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -595,14 +615,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="19">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -611,14 +631,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="12">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -627,14 +647,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A5:E13" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A5:E18" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="7">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -972,10 +992,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -994,7 +1014,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>7.6388888888888951E-2</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2">
@@ -1018,7 +1038,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
@@ -1042,7 +1062,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.375E-2</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2">
@@ -1084,10 +1104,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="G6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
         <v>22</v>
       </c>
@@ -1127,10 +1147,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1149,10 +1169,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
         <v>18</v>
       </c>
@@ -1174,10 +1194,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.10416666666666663</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
         <v>1.1729166666666664</v>
       </c>
@@ -1199,7 +1219,7 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="12"/>
       <c r="H11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1219,10 +1239,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1241,10 +1261,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333331</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
         <v>1.3951388888888885</v>
       </c>
@@ -1266,10 +1286,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
         <v>1.3951388888888885</v>
       </c>
@@ -1291,10 +1311,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
         <v>1.5791666666666664</v>
       </c>
@@ -1316,10 +1336,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0.11458333333333326</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
         <v>1.5791666666666664</v>
       </c>
@@ -1341,10 +1361,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
         <v>1.072222222222222</v>
       </c>
@@ -1366,10 +1386,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
         <v>1.072222222222222</v>
       </c>
@@ -1382,7 +1402,7 @@
         <v>0.5625</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3">
         <v>0.63194444444444442</v>
@@ -1451,7 +1471,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1499,10 +1519,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1512,7 +1532,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3">
         <v>0.80555555555555547</v>
@@ -1521,10 +1541,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0.2222222222222221</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <f>COUNT(Tabela14[[#All],[Day]])</f>
         <v>1</v>
       </c>
@@ -1538,10 +1558,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <f>SUM(Tabela14[[#All],[Duration]])</f>
         <v>0.2222222222222221</v>
       </c>
@@ -1565,10 +1585,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1579,10 +1599,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1593,10 +1613,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1776,7 +1796,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1824,10 +1844,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1837,7 +1857,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3">
         <v>0.89583333333333337</v>
@@ -1846,10 +1866,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <f>COUNT(Tabela147[[#All],[Day]])</f>
         <v>3</v>
       </c>
@@ -1862,7 +1882,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3">
         <v>0.97222222222222221</v>
@@ -1871,10 +1891,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0.20138888888888884</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <f>SUM(Tabela147[[#All],[Duration]])</f>
         <v>0.40625</v>
       </c>
@@ -1887,7 +1907,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3">
         <v>0.73958333333333337</v>
@@ -1906,10 +1926,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1920,10 +1940,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1934,10 +1954,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2117,13 +2137,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4:A24">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4:A20">
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2140,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2171,10 +2191,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2184,7 +2204,7 @@
         <v>0.875</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3">
         <v>0.98611111111111116</v>
@@ -2193,10 +2213,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0.11111111111111116</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <f>COUNT(Tabela1478[[#All],[Day]])</f>
         <v>3</v>
       </c>
@@ -2209,7 +2229,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3">
         <v>0.73958333333333337</v>
@@ -2218,10 +2238,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0.16319444444444442</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <f>SUM(Tabela1478[[#All],[Duration]])</f>
         <v>-0.10069444444444442</v>
       </c>
@@ -2234,7 +2254,7 @@
         <v>0.375</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -2251,10 +2271,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2265,10 +2285,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2279,10 +2299,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2462,7 +2482,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2477,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,9 +2516,9 @@
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="22">
         <f>SUMPRODUCT(Tabela2[QTD], Tabela2[Preço_uni])</f>
-        <v>40.21</v>
+        <v>60.75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2519,146 +2539,220 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>8.24</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="E6" s="8" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/modulos-bluetooth/4364-bluetooth-module-hc-05.html",Tabela2[[#This Row],[Produto]])</f>
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>1.05</v>
       </c>
-      <c r="E7" s="9" t="str">
+      <c r="E7" s="8" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensores-opticos/5913-ir-emitter-and-receiver-led-5mm-940nm.html",Tabela2[[#This Row],[Produto]])</f>
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>12.18</v>
       </c>
-      <c r="E8" s="9" t="str">
+      <c r="E8" s="8" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/cameras/3928-ov7670-camera-module.html",Tabela2[[#This Row],[Produto]])</f>
         <v>OV7670 Camera Module</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>10.82</v>
       </c>
-      <c r="E9" s="9" t="str">
+      <c r="E9" s="8" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensores-opticos/4048-tcs3200-color-sensor.html",Tabela2[[#This Row],[Produto]])</f>
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>4.43</v>
       </c>
-      <c r="E10" s="9" t="str">
+      <c r="E10" s="8" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensor-ultrasom/8220-us-015-modulo-sensor-de-distancia-ultrassonico-33-5v.html",Tabela2[[#This Row],[Produto]])</f>
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>2.44</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="8" t="str">
         <f>HYPERLINK("https://mauser.pt/catalog/product_info.php?cPath=1667_2604_2607&amp;products_id=096-8517",Tabela2[[#This Row],[Produto]])</f>
         <v>Módulo Leitor RFID RC522</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9">
+      <c r="A12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f>HYPERLINK("https://www.eztronics.nl/webshop2/catalog/Sensor/Distance-Range?product_id=598",Tabela2[[#This Row],[Produto]])</f>
+        <v>Sensor Sharp 2Y0A21YK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="E13" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9">
+        <v>Ficha Shell ou KK 6 vias 2,54mm</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
+        <v>Terminais para fichas shell ou KK</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>42</v>
+      <c r="A15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1.38</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>Cartão RFID Mifare 1k S50 compatível Tag 13,56MHz</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{3BE2CB3D-1045-4FA3-95C3-6C6F5D5C6679}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863A3AD4-5B0C-4C48-84AA-8CD6ADF82F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3D52A-5CD9-4023-AE4A-E0482B3E6233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>Day</t>
   </si>
@@ -215,6 +215,30 @@
   </si>
   <si>
     <t>Cartão RFID Mifare 1k S50 compatível Tag 13,56MHz</t>
+  </si>
+  <si>
+    <t>Implementação PID</t>
+  </si>
+  <si>
+    <t>Testar acionamento dos motores</t>
+  </si>
+  <si>
+    <t>Step-Down para 5V até 8A 40W com 4 Portas USB</t>
+  </si>
+  <si>
+    <t>Suporte para 1 pilha 18650 c/ fios</t>
+  </si>
+  <si>
+    <t>Interruptor de painel redondo</t>
+  </si>
+  <si>
+    <t>Botão de pressão preto redondo para painel</t>
+  </si>
+  <si>
+    <t>Carregador 3 Baterias 18650 em série - AC 100~240V DC 12,6V 1A</t>
+  </si>
+  <si>
+    <t>Testar PID</t>
   </si>
 </sst>
 </file>
@@ -375,17 +399,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -394,14 +418,61 @@
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -411,6 +482,34 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -425,6 +524,34 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -439,25 +566,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -486,88 +594,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,14 +630,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -615,14 +646,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -631,14 +662,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -647,14 +678,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A5:E18" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A5:E22" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -961,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,10 +1023,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1109,7 +1140,7 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1147,10 +1178,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1174,7 +1205,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,7 +1230,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>1.1729166666666664</v>
+        <v>1.0062499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1239,10 +1270,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1266,7 +1297,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>1.3951388888888885</v>
+        <v>1.6868055555555554</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1291,7 +1322,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>1.3951388888888885</v>
+        <v>1.6868055555555554</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1316,7 +1347,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.5791666666666664</v>
+        <v>1.4124999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1341,7 +1372,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.5791666666666664</v>
+        <v>1.4124999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1366,7 +1397,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.072222222222222</v>
+        <v>1.7388888888888889</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1391,7 +1422,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.072222222222222</v>
+        <v>1.7388888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1414,33 +1445,53 @@
       <c r="H19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E20" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.10416666666666674</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
       <c r="E21" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="2">
+        <v>44350</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>-0.39583333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1471,7 +1522,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1489,7 +1540,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,10 +1570,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1546,24 +1597,32 @@
       </c>
       <c r="H2" s="11">
         <f>COUNT(Tabela14[[#All],[Day]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="E3" s="3">
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="12">
         <f>SUM(Tabela14[[#All],[Duration]])</f>
-        <v>0.2222222222222221</v>
+        <v>0.68055555555555547</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1585,10 +1644,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1599,10 +1658,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1613,10 +1672,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1795,10 +1854,16 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  <conditionalFormatting sqref="A1:A2 A4:A24">
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A20">
+  <conditionalFormatting sqref="A1:A2 A4:A20">
+    <cfRule type="duplicateValues" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1814,7 +1879,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,10 +1909,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1918,18 +1983,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
       <c r="E5" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1940,10 +2001,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1954,10 +2015,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2136,17 +2197,17 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A2 A4:A24">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="A1:A2 A4 A6:A24">
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A4:A20">
-    <cfRule type="duplicateValues" priority="3"/>
+  <conditionalFormatting sqref="A1:A2 A4 A6:A20">
+    <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" priority="1"/>
+    <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2160,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,10 +2252,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2243,7 +2304,7 @@
       </c>
       <c r="H3" s="12">
         <f>SUM(Tabela1478[[#All],[Duration]])</f>
-        <v>-0.10069444444444442</v>
+        <v>0.73263888888888895</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2256,10 +2317,12 @@
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="E4" s="3">
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
-        <v>-0.375</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2271,10 +2334,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2285,10 +2348,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2299,10 +2362,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2482,7 +2545,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2497,28 +2560,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <f>SUMPRODUCT(Tabela2[QTD], Tabela2[Preço_uni])</f>
-        <v>60.75</v>
+        <v>86.250360000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2704,7 +2767,7 @@
       <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="1">
@@ -2719,31 +2782,116 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8">
+      <c r="A16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <f>7.886*1.23</f>
+        <v>9.6997800000000005</v>
+      </c>
+      <c r="E16" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
+        <v>Step-Down para 5V até 8A 40W com 4 Portas USB</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8">
+      <c r="A17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <f>0.691*1.23</f>
+        <v>0.84992999999999996</v>
+      </c>
+      <c r="E17" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
+        <v>Suporte para 1 pilha 18650 c/ fios</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8">
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <f>0.976*1.23</f>
+        <v>1.20048</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>Interruptor de painel redondo</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <f>0.488*1.23</f>
+        <v>0.60024</v>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>Botão de pressão preto redondo para painel</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <f>7.236*1.23</f>
+        <v>8.9002800000000004</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>Carregador 3 Baterias 18650 em série - AC 100~240V DC 12,6V 1A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
         <v>0</v>
       </c>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3D52A-5CD9-4023-AE4A-E0482B3E6233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE0E33D-AA2B-4CD7-8FD9-D94F1A59334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>Day</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>Testar PID</t>
+  </si>
+  <si>
+    <t>Cabo DC 0,2m com conector recto 5,2/2,1 (9,5mm)</t>
+  </si>
+  <si>
+    <t>AlfaElektor</t>
+  </si>
+  <si>
+    <t>Suporte Fusível Auto/F.Pla &gt;50A</t>
+  </si>
+  <si>
+    <t>Teste Movimento Rotate</t>
   </si>
 </sst>
 </file>
@@ -249,7 +261,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +320,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -342,7 +369,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +438,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -678,8 +721,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E22" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A5:E22" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A5:E27" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
     <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
@@ -992,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1183,7 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1205,7 +1248,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1230,7 +1273,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>1.0062499999999999</v>
+        <v>1.1104166666666666</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,7 +1340,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>1.6868055555555554</v>
+        <v>1.790972222222222</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1322,7 +1365,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>1.6868055555555554</v>
+        <v>1.790972222222222</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1347,7 +1390,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.4124999999999999</v>
+        <v>1.5166666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1372,7 +1415,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.4124999999999999</v>
+        <v>1.5166666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1397,7 +1440,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.7388888888888889</v>
+        <v>1.8430555555555554</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1422,7 +1465,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.7388888888888889</v>
+        <v>1.8430555555555554</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,13 +1538,21 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E23" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.10416666666666674</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2221,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +2632,7 @@
       </c>
       <c r="B2" s="20">
         <f>SUMPRODUCT(Tabela2[QTD], Tabela2[Preço_uni])</f>
-        <v>86.250360000000001</v>
+        <v>89.17022</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,56 +2688,56 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="25">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="26">
         <v>12.18</v>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="28" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/cameras/3928-ov7670-camera-module.html",Tabela2[[#This Row],[Produto]])</f>
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="25">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="26">
         <v>10.82</v>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="28" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensores-opticos/4048-tcs3200-color-sensor.html",Tabela2[[#This Row],[Produto]])</f>
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="25">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="26">
         <v>4.43</v>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="28" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensor-ultrasom/8220-us-015-modulo-sensor-de-distancia-ultrassonico-33-5v.html",Tabela2[[#This Row],[Produto]])</f>
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
@@ -2877,21 +2928,88 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8">
+      <c r="A21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <f>1.382*1.23</f>
+        <v>1.6998599999999999</v>
+      </c>
+      <c r="E21" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
+        <v>Cabo DC 0,2m com conector recto 5,2/2,1 (9,5mm)</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8">
+      <c r="A22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f>HYPERLINK("https://www.alfaelektor.pt/item.php?id=2198",Tabela2[[#This Row],[Produto]])</f>
+        <v>Suporte Fusível Auto/F.Pla &gt;50A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
         <v>0</v>
       </c>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoaoMiranda\Desktop\ProjetosUM\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE0E33D-AA2B-4CD7-8FD9-D94F1A59334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF922EC-63FA-4399-B358-BC889624D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Teste Movimento Rotate</t>
+  </si>
+  <si>
+    <t>Parte Mecânica (Furos na madeira) + Explicação PID</t>
+  </si>
+  <si>
+    <t>Parte Mecânica (Acabamento dos furos na madeira + Furos aluminio + cola na entrada de carregamento)</t>
   </si>
 </sst>
 </file>
@@ -432,12 +438,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -454,6 +454,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -1035,22 +1041,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1066,12 +1072,12 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44253</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44258</v>
       </c>
@@ -1119,7 +1125,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44263</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44265</v>
       </c>
@@ -1183,10 +1189,10 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44270</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44272</v>
       </c>
@@ -1221,12 +1227,12 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44273</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44277</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>1.1104166666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -1296,7 +1302,7 @@
       <c r="G11" s="12"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44278</v>
       </c>
@@ -1313,12 +1319,12 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44279</v>
       </c>
@@ -1340,10 +1346,10 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>1.790972222222222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.103472222222222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44279</v>
       </c>
@@ -1365,10 +1371,10 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>1.790972222222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.103472222222222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44279</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>1.5166666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44279</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>1.5166666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>1.8430555555555554</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>1.8430555555555554</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44319</v>
       </c>
@@ -1487,7 +1493,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44349</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44349</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44350</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>-0.39583333333333331</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44351</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1590,22 +1596,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2A9EC5-EFB6-4F84-81FA-9F8B291BBBD8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1621,12 +1627,12 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -1648,10 +1654,10 @@
       </c>
       <c r="H2" s="11">
         <f>COUNT(Tabela14[[#All],[Day]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44348</v>
       </c>
@@ -1673,34 +1679,50 @@
       </c>
       <c r="H3" s="12">
         <f>SUM(Tabela14[[#All],[Duration]])</f>
-        <v>0.68055555555555547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+        <v>0.99305555555555547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44352</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E4" s="3">
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="E5" s="3">
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="22" t="s">
+        <v>0.1875</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1709,12 +1731,12 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1723,12 +1745,12 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1738,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1748,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1758,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1768,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1778,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1788,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1798,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1808,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1818,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1828,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1838,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1848,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1858,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1868,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1878,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1888,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1933,18 +1955,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1960,12 +1982,12 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44288</v>
       </c>
@@ -1990,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44300</v>
       </c>
@@ -2015,7 +2037,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44321</v>
       </c>
@@ -2033,17 +2055,17 @@
         <v>0.16319444444444442</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E5" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2052,12 +2074,12 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2066,12 +2088,12 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2081,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2091,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2101,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2111,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2121,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2131,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2141,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2151,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2161,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2171,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2181,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2191,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2201,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2211,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2221,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2231,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2276,18 +2298,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2303,12 +2325,12 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2333,7 +2355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44321</v>
       </c>
@@ -2358,7 +2380,7 @@
         <v>0.73263888888888895</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44348</v>
       </c>
@@ -2376,7 +2398,7 @@
         <v>0.45833333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -2385,12 +2407,12 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2399,12 +2421,12 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2413,12 +2435,12 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2428,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2438,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2448,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2458,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2468,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2478,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2488,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2498,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2508,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2518,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2528,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2538,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2548,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2558,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2568,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2578,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2617,16 +2639,16 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2635,7 +2657,7 @@
         <v>89.17022</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2652,7 +2674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +2692,7 @@
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -2688,61 +2710,61 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="23">
         <v>1</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <v>12.18</v>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/cameras/3928-ov7670-camera-module.html",Tabela2[[#This Row],[Produto]])</f>
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="23">
         <v>1</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <v>10.82</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="26" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensores-opticos/4048-tcs3200-color-sensor.html",Tabela2[[#This Row],[Produto]])</f>
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <v>1</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>4.43</v>
       </c>
-      <c r="E10" s="28" t="str">
+      <c r="E10" s="26" t="str">
         <f>HYPERLINK("https://www.ptrobotics.com/sensor-ultrasom/8220-us-015-modulo-sensor-de-distancia-ultrassonico-33-5v.html",Tabela2[[#This Row],[Produto]])</f>
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -2760,7 +2782,7 @@
         <v>Módulo Leitor RFID RC522</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>55</v>
       </c>
@@ -2778,7 +2800,7 @@
         <v>Sensor Sharp 2Y0A21YK</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
@@ -2796,7 +2818,7 @@
         <v>Ficha Shell ou KK 6 vias 2,54mm</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
@@ -2814,7 +2836,7 @@
         <v>Terminais para fichas shell ou KK</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
@@ -2832,7 +2854,7 @@
         <v>Cartão RFID Mifare 1k S50 compatível Tag 13,56MHz</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>53</v>
       </c>
@@ -2851,7 +2873,7 @@
         <v>Step-Down para 5V até 8A 40W com 4 Portas USB</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
@@ -2870,7 +2892,7 @@
         <v>Suporte para 1 pilha 18650 c/ fios</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -2889,7 +2911,7 @@
         <v>Interruptor de painel redondo</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -2908,7 +2930,7 @@
         <v>Botão de pressão preto redondo para painel</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>53</v>
       </c>
@@ -2927,7 +2949,7 @@
         <v>Carregador 3 Baterias 18650 em série - AC 100~240V DC 12,6V 1A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -2946,7 +2968,7 @@
         <v>Cabo DC 0,2m com conector recto 5,2/2,1 (9,5mm)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>68</v>
       </c>
@@ -2964,7 +2986,7 @@
         <v>Suporte Fusível Auto/F.Pla &gt;50A</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="1"/>
@@ -2974,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="1"/>
@@ -2984,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
@@ -2994,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
@@ -3004,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoaoMiranda\Desktop\ProjetosUM\DWR-19\02Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF922EC-63FA-4399-B358-BC889624D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C2E4AC-1245-479D-9680-C42740F07BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>Day</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Parte Mecânica (Acabamento dos furos na madeira + Furos aluminio + cola na entrada de carregamento)</t>
+  </si>
+  <si>
+    <t>Montagem Robô</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +463,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -467,7 +476,14 @@
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -663,14 +679,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:E30" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="34">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -679,14 +695,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="25">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -695,14 +711,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="16">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -711,14 +727,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="8">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -727,14 +743,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:E27" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="1">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1039,24 +1055,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1093,7 @@
       </c>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44253</v>
       </c>
@@ -1101,7 +1117,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44258</v>
       </c>
@@ -1125,7 +1141,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -1146,10 +1162,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="2">
-        <v>44370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44263</v>
       </c>
@@ -1167,7 +1183,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44265</v>
       </c>
@@ -1189,10 +1205,10 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44270</v>
       </c>
@@ -1210,7 +1226,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44272</v>
       </c>
@@ -1232,7 +1248,7 @@
       </c>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44273</v>
       </c>
@@ -1254,10 +1270,10 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44277</v>
       </c>
@@ -1279,10 +1295,10 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>1.1104166666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.5479166666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -1302,7 +1318,7 @@
       <c r="G11" s="12"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44278</v>
       </c>
@@ -1324,7 +1340,7 @@
       </c>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44279</v>
       </c>
@@ -1346,10 +1362,10 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>2.103472222222222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.540972222222222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44279</v>
       </c>
@@ -1371,10 +1387,10 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>2.103472222222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.540972222222222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44279</v>
       </c>
@@ -1396,10 +1412,10 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.5166666666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.9541666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44279</v>
       </c>
@@ -1421,10 +1437,10 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.5166666666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.9541666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1446,10 +1462,10 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.8430555555555554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.2805555555555554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1471,10 +1487,10 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>1.8430555555555554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.2805555555555554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44319</v>
       </c>
@@ -1493,7 +1509,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44349</v>
       </c>
@@ -1511,7 +1527,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44349</v>
       </c>
@@ -1529,21 +1545,25 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44350</v>
       </c>
       <c r="B22" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="E22" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>-0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.43750000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44351</v>
       </c>
@@ -1561,12 +1581,78 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>-0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
@@ -1578,14 +1664,14 @@
     <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+  <conditionalFormatting sqref="A1:A30">
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1596,22 +1682,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2A9EC5-EFB6-4F84-81FA-9F8B291BBBD8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1718,7 @@
       </c>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -1657,7 +1743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44348</v>
       </c>
@@ -1682,7 +1768,7 @@
         <v>0.99305555555555547</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44352</v>
       </c>
@@ -1700,7 +1786,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44353</v>
       </c>
@@ -1722,7 +1808,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1736,7 +1822,7 @@
       </c>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -1750,7 +1836,7 @@
       </c>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1760,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1770,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -1780,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1790,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1800,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1810,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -1820,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -1830,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -1840,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1850,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -1860,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -1870,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -1880,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1890,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1900,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1910,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1928,13 +2014,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4:A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4:A20">
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1955,18 +2041,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +2073,7 @@
       </c>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44288</v>
       </c>
@@ -2012,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44300</v>
       </c>
@@ -2037,7 +2123,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44321</v>
       </c>
@@ -2055,7 +2141,7 @@
         <v>0.16319444444444442</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
@@ -2065,7 +2151,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2079,7 +2165,7 @@
       </c>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2093,7 +2179,7 @@
       </c>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2103,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2113,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2123,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2133,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2143,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2153,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2163,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2173,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2183,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2193,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2203,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2213,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2223,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2233,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2243,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2253,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2271,13 +2357,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4 A6:A24">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4 A6:A20">
     <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
@@ -2298,18 +2384,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2416,7 @@
       </c>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2355,7 +2441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44321</v>
       </c>
@@ -2380,7 +2466,7 @@
         <v>0.73263888888888895</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44348</v>
       </c>
@@ -2398,7 +2484,7 @@
         <v>0.45833333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -2412,7 +2498,7 @@
       </c>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2426,7 +2512,7 @@
       </c>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2440,7 +2526,7 @@
       </c>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2450,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2460,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2470,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2480,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2490,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2500,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2510,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2520,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2530,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2540,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2550,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2560,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2570,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2580,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2590,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2600,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2618,7 +2704,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2639,16 +2725,16 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -2657,7 +2743,7 @@
         <v>89.17022</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -2692,7 +2778,7 @@
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -2710,7 +2796,7 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
@@ -2728,7 +2814,7 @@
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
@@ -2746,7 +2832,7 @@
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>13</v>
       </c>
@@ -2764,7 +2850,7 @@
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -2782,7 +2868,7 @@
         <v>Módulo Leitor RFID RC522</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>55</v>
       </c>
@@ -2800,7 +2886,7 @@
         <v>Sensor Sharp 2Y0A21YK</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
@@ -2818,7 +2904,7 @@
         <v>Ficha Shell ou KK 6 vias 2,54mm</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
@@ -2836,7 +2922,7 @@
         <v>Terminais para fichas shell ou KK</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
@@ -2854,7 +2940,7 @@
         <v>Cartão RFID Mifare 1k S50 compatível Tag 13,56MHz</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>53</v>
       </c>
@@ -2873,7 +2959,7 @@
         <v>Step-Down para 5V até 8A 40W com 4 Portas USB</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
@@ -2892,7 +2978,7 @@
         <v>Suporte para 1 pilha 18650 c/ fios</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -2911,7 +2997,7 @@
         <v>Interruptor de painel redondo</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -2930,7 +3016,7 @@
         <v>Botão de pressão preto redondo para painel</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>53</v>
       </c>
@@ -2949,7 +3035,7 @@
         <v>Carregador 3 Baterias 18650 em série - AC 100~240V DC 12,6V 1A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -2968,7 +3054,7 @@
         <v>Cabo DC 0,2m com conector recto 5,2/2,1 (9,5mm)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>68</v>
       </c>
@@ -2986,7 +3072,7 @@
         <v>Suporte Fusível Auto/F.Pla &gt;50A</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="1"/>
@@ -2996,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="1"/>
@@ -3006,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
@@ -3016,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
@@ -3026,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C2E4AC-1245-479D-9680-C42740F07BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43D4005-673E-4E45-AE84-8EF99CB0CD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -457,17 +457,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -476,14 +476,7 @@
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -679,14 +672,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E30" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="33">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -695,14 +688,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -711,14 +704,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -727,14 +720,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -743,14 +736,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A5:E27" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1058,7 +1051,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,10 +1081,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1243,10 +1236,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1270,7 +1263,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1295,7 +1288,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>1.5479166666666666</v>
+        <v>1.5166666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1335,10 +1328,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1362,7 +1355,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>2.540972222222222</v>
+        <v>2.509722222222222</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1387,7 +1380,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>2.540972222222222</v>
+        <v>2.509722222222222</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1412,7 +1405,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.9541666666666666</v>
+        <v>1.9229166666666666</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1437,7 +1430,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.9541666666666666</v>
+        <v>1.9229166666666666</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1462,7 +1455,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>2.2805555555555554</v>
+        <v>2.2493055555555554</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1487,7 +1480,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>2.2805555555555554</v>
+        <v>2.2493055555555554</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,10 +1545,10 @@
       <c r="B22" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="29">
         <v>0.83333333333333337</v>
       </c>
       <c r="E22" s="3">
@@ -1591,20 +1584,26 @@
       <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="E24" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>-0.39583333333333331</v>
+        <v>0.15625000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>-0.58333333333333337</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1665,7 +1664,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A30">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1713,10 +1712,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1803,10 +1802,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0.1875</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1817,10 +1816,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1831,10 +1830,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2014,13 +2013,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4:A24">
-    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4:A20">
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2068,10 +2067,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2146,10 +2145,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2160,10 +2159,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2174,10 +2173,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2357,13 +2356,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4 A6:A24">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4 A6:A20">
     <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
@@ -2411,10 +2410,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2493,10 +2492,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2507,10 +2506,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2521,10 +2520,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2704,7 +2703,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DWR-19\02Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/a88231_uminho_pt/Documents/Documentos/Github/DWR-19/02Others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43D4005-673E-4E45-AE84-8EF99CB0CD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{F43D4005-673E-4E45-AE84-8EF99CB0CD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97BD2AC5-BA65-4CB7-B263-719F87F6F790}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>Day</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Implementação da deteção de obstáculos, quartos e cruzamentos.</t>
   </si>
   <si>
-    <t>estudo do modulo RFID</t>
-  </si>
-  <si>
     <t>Continuação da implementação do modulo RFID + documentação</t>
   </si>
   <si>
@@ -260,6 +257,12 @@
   </si>
   <si>
     <t>Montagem Robô</t>
+  </si>
+  <si>
+    <t>Estudo e Implementação do Bluetooth</t>
+  </si>
+  <si>
+    <t>Estudo do modulo RFID</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +471,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1050,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1417,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.9229166666666666</v>
+        <v>2.0895833333333336</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,7 +1442,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>1.9229166666666666</v>
+        <v>2.0895833333333336</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1510,7 +1522,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3">
         <v>0.70833333333333337</v>
@@ -1528,7 +1540,7 @@
         <v>0.875</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -1546,7 +1558,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="29">
         <v>0.83333333333333337</v>
@@ -1564,7 +1576,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3">
         <v>0.70833333333333337</v>
@@ -1582,7 +1594,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="3">
         <v>0.55208333333333337</v>
@@ -1750,7 +1762,7 @@
         <v>0.375</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3">
         <v>0.83333333333333337</v>
@@ -1775,7 +1787,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3">
         <v>0.79166666666666663</v>
@@ -1793,7 +1805,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3">
         <v>0.77083333333333337</v>
@@ -2036,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F1DF70-9EAC-49DC-AC3E-822A07B27930}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2092,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3">
         <v>0.89583333333333337</v>
@@ -2094,7 +2106,7 @@
       </c>
       <c r="H2" s="11">
         <f>COUNT(Tabela147[[#All],[Day]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2119,7 +2131,7 @@
       </c>
       <c r="H3" s="12">
         <f>SUM(Tabela147[[#All],[Duration]])</f>
-        <v>0.40625</v>
+        <v>0.57291666666666674</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2130,7 +2142,7 @@
         <v>0.57638888888888895</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3">
         <v>0.73958333333333337</v>
@@ -2141,9 +2153,21 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>44352</v>
+      </c>
+      <c r="B5" s="33">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="E5" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>39</v>
@@ -2380,7 +2404,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,7 +2497,7 @@
         <v>0.375</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3">
         <v>0.83333333333333337</v>
@@ -2869,10 +2893,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -2887,10 +2911,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -2905,10 +2929,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1">
         <v>6</v>
@@ -2923,10 +2947,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1">
         <v>6</v>
@@ -2941,10 +2965,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2960,10 +2984,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1">
         <v>6</v>
@@ -2979,10 +3003,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -2998,10 +3022,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -3017,10 +3041,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -3036,10 +3060,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -3055,10 +3079,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/a88231_uminho_pt/Documents/Documentos/Github/DWR-19/02Others/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{F43D4005-673E-4E45-AE84-8EF99CB0CD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97BD2AC5-BA65-4CB7-B263-719F87F6F790}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27443EEC-9EAA-462D-902F-D99F3ACCAD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>Day</t>
   </si>
@@ -466,12 +466,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,6 +474,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,10 +1093,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,10 +1248,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>1.5166666666666666</v>
+        <v>2.0791666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1340,10 +1340,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>2.509722222222222</v>
+        <v>3.072222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>2.509722222222222</v>
+        <v>3.072222222222222</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>2.0895833333333336</v>
+        <v>2.6520833333333336</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>2.0895833333333336</v>
+        <v>2.6520833333333336</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>2.2493055555555554</v>
+        <v>2.8118055555555554</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>2.2493055555555554</v>
+        <v>2.8118055555555554</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1611,21 +1611,29 @@
       <c r="B25" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="E25" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>-0.58333333333333337</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="2">
+        <v>44355</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>-0.39583333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1724,10 +1732,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1814,10 +1822,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0.1875</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1828,10 +1836,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1842,10 +1850,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2048,7 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F1DF70-9EAC-49DC-AC3E-822A07B27930}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2079,10 +2087,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2153,26 +2161,26 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <v>44352</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="31">
         <v>0.77083333333333337</v>
       </c>
       <c r="E5" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2183,10 +2191,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2197,10 +2205,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2434,10 +2442,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2516,10 +2524,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2530,10 +2538,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="31"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2544,10 +2552,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27443EEC-9EAA-462D-902F-D99F3ACCAD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD3FC42-8D98-457D-AEA4-9D24B3137E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="7200" yWindow="2265" windowWidth="21600" windowHeight="11835" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
   <si>
     <t>Day</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Estudo do modulo RFID</t>
+  </si>
+  <si>
+    <t>Criação da FSM</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,6 +484,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -490,6 +497,18 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -634,18 +653,6 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -689,9 +696,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="1">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -700,14 +707,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="27">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -716,14 +723,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="18">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -732,14 +739,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="10">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -748,14 +755,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A5:E27" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="3">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1063,7 +1070,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1078,7 @@
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1087,7 +1094,7 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1210,7 +1217,7 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1275,7 +1282,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,7 +1307,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>2.0791666666666666</v>
+        <v>3.1208333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,7 +1374,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>3.072222222222222</v>
+        <v>4.1138888888888889</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1392,7 +1399,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>3.072222222222222</v>
+        <v>4.1138888888888889</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1417,7 +1424,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>2.6520833333333336</v>
+        <v>3.6937500000000005</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1442,7 +1449,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>2.6520833333333336</v>
+        <v>3.6937500000000005</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,7 +1474,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>2.8118055555555554</v>
+        <v>3.8534722222222224</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,7 +1499,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>2.8118055555555554</v>
+        <v>3.8534722222222224</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1629,21 +1636,33 @@
       <c r="B26" s="3">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
       <c r="E26" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>-0.39583333333333331</v>
+        <v>0.60416666666666674</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.0416666666666667</v>
+      </c>
       <c r="E27" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2033,13 +2052,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4:A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4:A20">
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2388,13 +2407,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4 A6:A24">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4 A6:A20">
     <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
@@ -2735,7 +2754,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD3FC42-8D98-457D-AEA4-9D24B3137E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C33B0D-7E81-46D0-A4AA-FBCE4D9C3D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2265" windowWidth="21600" windowHeight="11835" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>Day</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>Criação da FSM</t>
+  </si>
+  <si>
+    <t>Criação da Shield para STM. Continuação da implementação da FSM</t>
+  </si>
+  <si>
+    <t>Implementação da FSM</t>
   </si>
 </sst>
 </file>
@@ -478,16 +484,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Cor1" xfId="1" builtinId="29"/>
@@ -497,18 +503,6 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -653,6 +647,18 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -696,9 +702,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="33">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -707,14 +713,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -723,14 +729,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -739,14 +745,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -755,14 +761,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A5:E27" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1070,7 +1076,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1084,7 @@
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1094,16 +1100,16 @@
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1255,10 +1261,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>9.0277777777777679E-2</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1282,7 +1288,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1307,7 +1313,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>3.1208333333333336</v>
+        <v>2.7041666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1347,10 +1353,10 @@
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1374,7 +1380,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>4.1138888888888889</v>
+        <v>3.6972222222222224</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,7 +1405,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>4.1138888888888889</v>
+        <v>3.6972222222222224</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1424,7 +1430,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>3.6937500000000005</v>
+        <v>3.2770833333333336</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1449,7 +1455,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>3.6937500000000005</v>
+        <v>3.2770833333333336</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1474,7 +1480,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>3.8534722222222224</v>
+        <v>3.4368055555555559</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1499,7 +1505,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>3.8534722222222224</v>
+        <v>3.4368055555555559</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="3">
         <v>1.0416666666666667</v>
@@ -1666,13 +1672,19 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>-0.41666666666666669</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1751,10 +1763,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1841,10 +1853,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0.1875</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1855,10 +1867,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1869,10 +1881,10 @@
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2052,13 +2064,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4:A24">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4:A20">
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2106,10 +2118,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2196,10 +2208,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0.16666666666666674</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2210,10 +2222,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2224,10 +2236,10 @@
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2407,13 +2419,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4 A6:A24">
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4 A6:A20">
     <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
@@ -2461,10 +2473,10 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2543,10 +2555,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2557,10 +2569,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2571,10 +2583,10 @@
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2754,7 +2766,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C33B0D-7E81-46D0-A4AA-FBCE4D9C3D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC999D08-D18D-4550-BF4D-79C1FC6865D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
   <si>
     <t>Day</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>Implementação da FSM</t>
+  </si>
+  <si>
+    <t>Atualização dos periféricos e pinos a usar na STM</t>
+  </si>
+  <si>
+    <t>Implementação e testes da FSM</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,14 @@
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -697,14 +710,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E30" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:E30" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:E40" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="34">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -713,14 +726,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="25">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -729,14 +742,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="16">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -745,14 +758,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="8">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -761,14 +774,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:E27" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="1">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1073,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1236,7 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1288,7 +1301,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1313,7 +1326,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>2.7041666666666671</v>
+        <v>3.3916666666666662</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1380,7 +1393,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>3.6972222222222224</v>
+        <v>4.384722222222222</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1405,7 +1418,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>3.6972222222222224</v>
+        <v>4.384722222222222</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,7 +1443,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>3.2770833333333336</v>
+        <v>3.9645833333333327</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1455,7 +1468,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>3.2770833333333336</v>
+        <v>3.9645833333333327</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1480,7 +1493,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>3.4368055555555559</v>
+        <v>4.124305555555555</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,7 +1518,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>3.4368055555555559</v>
+        <v>4.124305555555555</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1681,28 +1694,144 @@
       <c r="C28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
       <c r="E28" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>-0.41666666666666669</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.0833333333333333</v>
+      </c>
       <c r="E29" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>-0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
         <v>0</v>
       </c>
@@ -1714,8 +1843,8 @@
     <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A30">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+  <conditionalFormatting sqref="A1:A40">
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -1732,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2A9EC5-EFB6-4F84-81FA-9F8B291BBBD8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1740,7 +1869,7 @@
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
@@ -2064,13 +2193,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4:A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4:A20">
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2419,13 +2548,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4 A6:A24">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4 A6:A20">
     <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
@@ -2766,7 +2895,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2784,7 +2913,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC999D08-D18D-4550-BF4D-79C1FC6865D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF40FBB0-5468-44C5-85B3-A750846FE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -507,14 +507,7 @@
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -710,14 +703,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:E40" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="33">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -726,14 +719,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -742,14 +735,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -758,14 +751,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -774,14 +767,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A5:E27" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1088,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,7 +1229,7 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,7 +1319,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>3.3916666666666662</v>
+        <v>4.3916666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1393,7 +1386,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>4.384722222222222</v>
+        <v>5.384722222222222</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,7 +1411,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>4.384722222222222</v>
+        <v>5.384722222222222</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,7 +1436,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>3.9645833333333327</v>
+        <v>4.9645833333333336</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1468,7 +1461,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>3.9645833333333327</v>
+        <v>4.9645833333333336</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1493,7 +1486,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>4.124305555555555</v>
+        <v>5.1243055555555559</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1518,7 +1511,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>4.124305555555555</v>
+        <v>5.1243055555555559</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1730,10 +1723,12 @@
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
       <c r="E30" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>-0.39583333333333331</v>
+        <v>0.60416666666666674</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1844,7 +1839,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A40">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2193,13 +2188,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4:A24">
-    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4:A20">
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2548,13 +2543,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4 A6:A24">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4 A6:A20">
     <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
@@ -2895,7 +2890,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF40FBB0-5468-44C5-85B3-A750846FE0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5404AD66-35BB-4301-91ED-657F57F3344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>Day</t>
   </si>
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>4.3916666666666666</v>
+        <v>4.0166666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>5.384722222222222</v>
+        <v>5.009722222222222</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>5.384722222222222</v>
+        <v>5.009722222222222</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>4.9645833333333336</v>
+        <v>4.5895833333333336</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>4.9645833333333336</v>
+        <v>4.5895833333333336</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>5.1243055555555559</v>
+        <v>4.7493055555555559</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>5.1243055555555559</v>
+        <v>4.7493055555555559</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1732,13 +1732,19 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5404AD66-35BB-4301-91ED-657F57F3344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368142DF-6118-4871-8B04-1D0C3FCADA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>Day</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>Implementação e testes da FSM</t>
+  </si>
+  <si>
+    <t>Manga Espiral Wrapping 20-60mm</t>
   </si>
 </sst>
 </file>
@@ -1081,22 +1084,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1120,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44253</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44258</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44263</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44265</v>
       </c>
@@ -1229,10 +1232,10 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44270</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44272</v>
       </c>
@@ -1272,7 +1275,7 @@
       </c>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44273</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44277</v>
       </c>
@@ -1319,10 +1322,10 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>4.0166666666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.7874999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="G11" s="12"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44278</v>
       </c>
@@ -1364,7 +1367,7 @@
       </c>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44279</v>
       </c>
@@ -1386,10 +1389,10 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>5.009722222222222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.780555555555555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44279</v>
       </c>
@@ -1411,10 +1414,10 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>5.009722222222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.780555555555555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44279</v>
       </c>
@@ -1436,10 +1439,10 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>4.5895833333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.3604166666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44279</v>
       </c>
@@ -1461,10 +1464,10 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>4.5895833333333336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.3604166666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1486,10 +1489,10 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>4.7493055555555559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.6451388888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1511,10 +1514,10 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>4.7493055555555559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.6451388888888889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44319</v>
       </c>
@@ -1533,7 +1536,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44349</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44349</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44350</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>0.43750000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44351</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44354</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>0.15625000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44354</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44355</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>0.60416666666666674</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44356</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44356</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44356</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44357</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>0.60416666666666674</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44358</v>
       </c>
@@ -1741,14 +1744,16 @@
       <c r="C31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="E31" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>-0.375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+        <v>0.39583333333333337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
@@ -1757,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -1767,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -1777,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1787,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1797,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1807,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -1817,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -1827,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1863,21 +1868,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1903,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -1923,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44348</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>0.99305555555555547</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44352</v>
       </c>
@@ -1966,7 +1971,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44353</v>
       </c>
@@ -1988,7 +1993,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2002,7 +2007,7 @@
       </c>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2016,7 +2021,7 @@
       </c>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2026,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2036,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2046,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2056,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2066,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2076,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2086,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2096,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2106,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2116,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2126,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2136,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2146,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2156,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2166,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2176,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2221,18 +2226,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2258,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44288</v>
       </c>
@@ -2278,7 +2283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44300</v>
       </c>
@@ -2303,7 +2308,7 @@
         <v>0.57291666666666674</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44321</v>
       </c>
@@ -2321,7 +2326,7 @@
         <v>0.16319444444444442</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>44352</v>
       </c>
@@ -2343,7 +2348,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2357,7 +2362,7 @@
       </c>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2371,7 +2376,7 @@
       </c>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2381,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2391,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2401,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2411,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2421,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2431,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2441,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2451,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2461,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2471,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2481,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2491,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2501,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2511,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2521,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2531,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2572,22 +2577,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2608,7 +2613,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2630,10 +2635,10 @@
       </c>
       <c r="H2" s="11">
         <f>COUNT(Tabela1478[[#All],[Day]])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44321</v>
       </c>
@@ -2655,10 +2660,10 @@
       </c>
       <c r="H3" s="12">
         <f>SUM(Tabela1478[[#All],[Duration]])</f>
-        <v>0.73263888888888895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.85763888888888895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44348</v>
       </c>
@@ -2676,21 +2681,29 @@
         <v>0.45833333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="E5" s="3">
         <f>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2704,7 +2717,7 @@
       </c>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2718,7 +2731,7 @@
       </c>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2728,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2738,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2748,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2758,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2768,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2778,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2788,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2798,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2808,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2818,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2828,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2838,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2848,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2858,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2868,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2878,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2913,29 +2926,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="20">
         <f>SUMPRODUCT(Tabela2[QTD], Tabela2[Preço_uni])</f>
-        <v>89.17022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94.67022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2952,7 +2965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -2970,7 +2983,7 @@
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -2988,7 +3001,7 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
@@ -3006,7 +3019,7 @@
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
@@ -3024,7 +3037,7 @@
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>13</v>
       </c>
@@ -3042,7 +3055,7 @@
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -3060,7 +3073,7 @@
         <v>Módulo Leitor RFID RC522</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
@@ -3078,7 +3091,7 @@
         <v>Sensor Sharp 2Y0A21YK</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
@@ -3096,7 +3109,7 @@
         <v>Ficha Shell ou KK 6 vias 2,54mm</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -3114,7 +3127,7 @@
         <v>Terminais para fichas shell ou KK</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -3132,7 +3145,7 @@
         <v>Cartão RFID Mifare 1k S50 compatível Tag 13,56MHz</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -3151,7 +3164,7 @@
         <v>Step-Down para 5V até 8A 40W com 4 Portas USB</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -3170,7 +3183,7 @@
         <v>Suporte para 1 pilha 18650 c/ fios</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -3189,7 +3202,7 @@
         <v>Interruptor de painel redondo</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>52</v>
       </c>
@@ -3208,7 +3221,7 @@
         <v>Botão de pressão preto redondo para painel</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>52</v>
       </c>
@@ -3227,7 +3240,7 @@
         <v>Carregador 3 Baterias 18650 em série - AC 100~240V DC 12,6V 1A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
@@ -3246,7 +3259,7 @@
         <v>Cabo DC 0,2m com conector recto 5,2/2,1 (9,5mm)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -3264,17 +3277,25 @@
         <v>Suporte Fusível Auto/F.Pla &gt;50A</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="E23" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Manga Espiral Wrapping 20-60mm</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="1"/>
@@ -3284,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
@@ -3294,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
@@ -3304,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoaoMiranda\Desktop\ProjetosUM\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368142DF-6118-4871-8B04-1D0C3FCADA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C20CC8C-354A-4032-A21D-31610281C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Components" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>Day</t>
   </si>
@@ -281,6 +282,48 @@
   </si>
   <si>
     <t>Manga Espiral Wrapping 20-60mm</t>
+  </si>
+  <si>
+    <t>Fusivel 3A</t>
+  </si>
+  <si>
+    <t>Guimocircuito</t>
+  </si>
+  <si>
+    <t>PCB Shield STM32F767ZI</t>
+  </si>
+  <si>
+    <t>Mauser</t>
+  </si>
+  <si>
+    <t>Barra (2x8) fêmea 2,54 mm PCB</t>
+  </si>
+  <si>
+    <t>Barra (2x10) fêmea 2,54 mm PCB</t>
+  </si>
+  <si>
+    <t>Barra (2x16) fêmea 2,54 mm PCB</t>
+  </si>
+  <si>
+    <t>Barra (2x17) fêmea 2,54 mm PCB</t>
+  </si>
+  <si>
+    <t>Barra (2x3) fêmea 2,54 mm PCB</t>
+  </si>
+  <si>
+    <t>Barra (1x6) fêmea 2,54 mm PCB</t>
+  </si>
+  <si>
+    <t>Parte Mecânica (Sensor Distancia/Sensor linha/Furos Fonte/RFID)</t>
+  </si>
+  <si>
+    <t>Montagem integral dos circuitos (I)</t>
+  </si>
+  <si>
+    <t>Montagem integral dos circuitos (II)</t>
+  </si>
+  <si>
+    <t>Diagramas mecânicos</t>
   </si>
 </sst>
 </file>
@@ -510,62 +553,7 @@
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -574,34 +562,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -616,39 +576,150 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -706,14 +777,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:E40" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="37">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -722,14 +793,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="29">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -738,14 +809,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="20">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -754,14 +825,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="12">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -770,14 +841,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E27" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A5:E27" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A5:E34" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="5">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1084,22 +1155,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1191,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44253</v>
       </c>
@@ -1144,7 +1215,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44258</v>
       </c>
@@ -1168,7 +1239,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -1192,7 +1263,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44263</v>
       </c>
@@ -1210,7 +1281,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44265</v>
       </c>
@@ -1232,10 +1303,10 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44270</v>
       </c>
@@ -1253,7 +1324,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44272</v>
       </c>
@@ -1275,7 +1346,7 @@
       </c>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44273</v>
       </c>
@@ -1300,7 +1371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44277</v>
       </c>
@@ -1325,7 +1396,7 @@
         <v>4.7874999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -1345,7 +1416,7 @@
       <c r="G11" s="12"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44278</v>
       </c>
@@ -1367,7 +1438,7 @@
       </c>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44279</v>
       </c>
@@ -1389,10 +1460,10 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>5.780555555555555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6.426388888888888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44279</v>
       </c>
@@ -1414,10 +1485,10 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>5.780555555555555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6.426388888888888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44279</v>
       </c>
@@ -1439,10 +1510,10 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>5.3604166666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5.4854166666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44279</v>
       </c>
@@ -1464,10 +1535,10 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>5.3604166666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5.4854166666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1492,7 +1563,7 @@
         <v>5.6451388888888889</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1517,7 +1588,7 @@
         <v>5.6451388888888889</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44319</v>
       </c>
@@ -1536,7 +1607,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44349</v>
       </c>
@@ -1554,7 +1625,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44349</v>
       </c>
@@ -1572,7 +1643,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44350</v>
       </c>
@@ -1590,7 +1661,7 @@
         <v>0.43750000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44351</v>
       </c>
@@ -1608,7 +1679,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44354</v>
       </c>
@@ -1626,7 +1697,7 @@
         <v>0.15625000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44354</v>
       </c>
@@ -1644,7 +1715,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44355</v>
       </c>
@@ -1662,7 +1733,7 @@
         <v>0.60416666666666674</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44356</v>
       </c>
@@ -1680,7 +1751,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44356</v>
       </c>
@@ -1698,7 +1769,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44356</v>
       </c>
@@ -1716,7 +1787,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44357</v>
       </c>
@@ -1734,7 +1805,7 @@
         <v>0.60416666666666674</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44358</v>
       </c>
@@ -1752,7 +1823,7 @@
         <v>0.39583333333333337</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -1762,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -1772,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -1782,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1792,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1802,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1812,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -1822,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -1832,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1849,11 +1920,14 @@
     <mergeCell ref="G12:H12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A40">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+  <conditionalFormatting sqref="A1:A31 A33:A40">
+    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
-    <cfRule type="duplicateValues" priority="1"/>
+    <cfRule type="duplicateValues" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1868,21 +1942,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1977,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -1925,10 +1999,10 @@
       </c>
       <c r="H2" s="11">
         <f>COUNT(Tabela14[[#All],[Day]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44348</v>
       </c>
@@ -1950,10 +2024,10 @@
       </c>
       <c r="H3" s="12">
         <f>SUM(Tabela14[[#All],[Duration]])</f>
-        <v>0.99305555555555547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1.6388888888888884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44352</v>
       </c>
@@ -1971,7 +2045,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44353</v>
       </c>
@@ -1993,45 +2067,69 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="E6" s="3">
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="E7" s="3">
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.875</v>
+      </c>
       <c r="E8" s="3">
         <f>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2041,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2051,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2061,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2071,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2081,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2091,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2101,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2111,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2121,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2131,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2141,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2151,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2161,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2171,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2181,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2198,16 +2296,22 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A2 A4:A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+  <conditionalFormatting sqref="A1:A2 A4:A7 A9:A24">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2 A4:A20">
+  <conditionalFormatting sqref="A1:A2 A4:A7 A9:A20">
+    <cfRule type="duplicateValues" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2223,21 +2327,21 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2362,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44288</v>
       </c>
@@ -2280,10 +2384,10 @@
       </c>
       <c r="H2" s="11">
         <f>COUNT(Tabela147[[#All],[Day]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44300</v>
       </c>
@@ -2305,10 +2409,10 @@
       </c>
       <c r="H3" s="12">
         <f>SUM(Tabela147[[#All],[Duration]])</f>
-        <v>0.57291666666666674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.69791666666666674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44321</v>
       </c>
@@ -2326,7 +2430,7 @@
         <v>0.16319444444444442</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>44352</v>
       </c>
@@ -2348,21 +2452,29 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
       <c r="E6" s="3">
         <f>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2376,7 +2488,7 @@
       </c>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2386,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2396,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2406,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2416,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2426,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2436,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2446,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2456,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2466,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2476,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2486,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2496,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2506,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2516,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2526,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2536,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2554,13 +2666,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4 A6:A24">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4 A6:A20">
     <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
@@ -2577,22 +2689,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB61F12-31A1-4865-A365-EE2C93760A20}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2725,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2638,7 +2750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44321</v>
       </c>
@@ -2663,7 +2775,7 @@
         <v>0.85763888888888895</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44348</v>
       </c>
@@ -2681,7 +2793,7 @@
         <v>0.45833333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44359</v>
       </c>
@@ -2703,7 +2815,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2717,7 +2829,7 @@
       </c>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2731,7 +2843,7 @@
       </c>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2741,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2751,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2761,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2771,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2781,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2791,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2801,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2811,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2821,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2831,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2841,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2851,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2861,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2871,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2881,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2891,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2909,7 +3021,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2924,31 +3036,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
-  <dimension ref="A2:E27"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="20">
         <f>SUMPRODUCT(Tabela2[QTD], Tabela2[Preço_uni])</f>
-        <v>94.67022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>97.190219999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -2965,7 +3077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -2983,7 +3095,7 @@
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -3001,7 +3113,7 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
@@ -3019,7 +3131,7 @@
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
@@ -3037,7 +3149,7 @@
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>13</v>
       </c>
@@ -3055,7 +3167,7 @@
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -3073,7 +3185,7 @@
         <v>Módulo Leitor RFID RC522</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
@@ -3091,7 +3203,7 @@
         <v>Sensor Sharp 2Y0A21YK</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
@@ -3109,7 +3221,7 @@
         <v>Ficha Shell ou KK 6 vias 2,54mm</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -3127,7 +3239,7 @@
         <v>Terminais para fichas shell ou KK</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -3145,7 +3257,7 @@
         <v>Cartão RFID Mifare 1k S50 compatível Tag 13,56MHz</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -3164,7 +3276,7 @@
         <v>Step-Down para 5V até 8A 40W com 4 Portas USB</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -3183,7 +3295,7 @@
         <v>Suporte para 1 pilha 18650 c/ fios</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -3202,7 +3314,7 @@
         <v>Interruptor de painel redondo</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>52</v>
       </c>
@@ -3221,7 +3333,7 @@
         <v>Botão de pressão preto redondo para painel</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>52</v>
       </c>
@@ -3240,7 +3352,7 @@
         <v>Carregador 3 Baterias 18650 em série - AC 100~240V DC 12,6V 1A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
@@ -3259,7 +3371,7 @@
         <v>Cabo DC 0,2m com conector recto 5,2/2,1 (9,5mm)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -3277,60 +3389,192 @@
         <v>Suporte Fusível Auto/F.Pla &gt;50A</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f>HYPERLINK("https://www.alfaelektor.pt/item.php?id=2198",Tabela2[[#This Row],[Produto]])</f>
+        <v>Fusivel 3A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
         <v>5.5</v>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E24" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
         <v>Manga Espiral Wrapping 20-60mm</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8">
+        <v>PCB Shield STM32F767ZI</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8">
+        <v>Barra (2x8) fêmea 2,54 mm PCB</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="8" t="str">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8">
+        <v>Barra (2x10) fêmea 2,54 mm PCB</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="E28" s="8" t="str">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>Barra (2x16) fêmea 2,54 mm PCB</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="E29" s="8" t="str">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>Barra (2x17) fêmea 2,54 mm PCB</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>Barra (2x3) fêmea 2,54 mm PCB</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>Barra (1x6) fêmea 2,54 mm PCB</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8">
+        <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8">
         <f>HYPERLINK(,Tabela2[[#This Row],[Produto]])</f>
         <v>0</v>
       </c>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoaoMiranda\Desktop\ProjetosUM\DWR-19\02Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C20CC8C-354A-4032-A21D-31610281C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2712823E-D5F6-453F-B931-11DB7C0F014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Components" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
   <si>
     <t>Day</t>
   </si>
@@ -553,7 +552,62 @@
     <cellStyle name="Hiperligação" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="43">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -562,6 +616,34 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -576,6 +658,34 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -590,61 +700,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
@@ -685,76 +740,6 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -777,14 +762,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{089AB311-2EBA-4666-A45A-92B70D0BB74D}" name="Tabela1" displayName="Tabela1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:E40" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{5AD32248-1077-464B-A7D3-70E7C7D94823}" name="Day" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1C9ADB5E-D81F-498C-9278-7858E935AA74}" name="Start Time" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{ED087065-3F1F-4D46-914E-DD7DE82F29BC}" name="Tasks" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{93C97E1E-2A55-43A9-B68E-0598C0D09F28}" name="End Time" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{8EF2F89D-4902-4239-8ABF-0BE7E4EB90FB}" name="Duration" dataDxfId="34">
       <calculatedColumnFormula>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -793,14 +778,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7DD9F9E8-D2B0-440B-927E-81876E34B61D}" name="Tabela14" displayName="Tabela14" ref="A1:E24" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{85BD1EC3-C0E7-4EF0-98EF-4F01B8EAE2F3}" name="Day" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{80C27C96-FD1C-4830-8F54-DE84DCED9808}" name="Start Time" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{E682CF64-62B3-4421-B8AD-391788F8B766}" name="Tasks" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{55984218-71D5-4765-A54E-70BE13A4FCD0}" name="End Time" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{43527839-801E-4BC5-98C8-9C34FFF7BB0E}" name="Duration" dataDxfId="24">
       <calculatedColumnFormula>Tabela14[[#This Row],[End Time]]-Tabela14[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -809,14 +794,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4CCCDC0E-C7E3-47B9-8789-B91B091ADD8C}" name="Tabela147" displayName="Tabela147" ref="A1:E24" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{A4DFB97C-4464-453F-AD2D-952EA90CBC4C}" name="Day" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7359B1B8-25A1-488F-9454-F129E3980E2C}" name="Start Time" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DB5689D0-C83B-4C58-97ED-3DC5F0173095}" name="Tasks" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{88D3CCB8-C055-417E-8841-9F5313B61FD7}" name="End Time" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{41FB43E1-33AF-4967-9F0E-5C323F87396C}" name="Duration" dataDxfId="15">
       <calculatedColumnFormula>Tabela147[[#This Row],[End Time]]-Tabela147[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -825,14 +810,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F03DE230-AE05-4C03-AB82-A97CB3BB0939}" name="Tabela1478" displayName="Tabela1478" ref="A1:E24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:E24" xr:uid="{1B66A83B-1E9C-400A-A414-4BA5EB76EA0B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{A3058E71-0408-4675-905B-61C9BCB4A03A}" name="Day" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{73EE3472-34B0-4B87-B603-EB02C7ACF80C}" name="Start Time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AB750483-1219-4286-A895-D20CC8A604A9}" name="Tasks" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDD8475B-DB00-4CBB-96E5-BC585B3E0DA4}" name="End Time" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D80CBB36-36CA-48CD-A047-EB01578B76D2}" name="Duration" dataDxfId="7">
       <calculatedColumnFormula>Tabela1478[[#This Row],[End Time]]-Tabela1478[[#This Row],[Start Time]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -841,14 +826,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E77EB429-0C66-46C5-A399-F393A25355E6}" name="Tabela2" displayName="Tabela2" ref="A5:E34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A5:E34" xr:uid="{911E91EB-1FF0-4A89-BC68-6C79F4F7C5B8}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{A529EA0B-F631-485F-93E8-036470D20E27}" name="Loja" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EDF7F017-6B30-4C05-AB54-2B6FFD1E3BD0}" name="Produto" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{680017A8-58D2-4CFC-9B77-D751A4F9C07C}" name="QTD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F1F1EEB3-3097-4AE2-9314-8060F10DBFCF}" name="Preço_uni" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CF896882-81A8-489C-B959-4EC89B14AAB9}" name="HiperLink" dataDxfId="0">
       <calculatedColumnFormula>HYPERLINK(,Tabela2[[#This Row],[Produto]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1155,22 +1140,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1176,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44253</v>
       </c>
@@ -1215,7 +1200,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44258</v>
       </c>
@@ -1239,7 +1224,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44263</v>
       </c>
@@ -1263,7 +1248,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44263</v>
       </c>
@@ -1281,7 +1266,7 @@
         <v>4.861111111111116E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44265</v>
       </c>
@@ -1303,10 +1288,10 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44270</v>
       </c>
@@ -1324,7 +1309,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44272</v>
       </c>
@@ -1346,7 +1331,7 @@
       </c>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44273</v>
       </c>
@@ -1368,10 +1353,10 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44277</v>
       </c>
@@ -1393,10 +1378,10 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>4.7874999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.0166666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44277</v>
       </c>
@@ -1416,7 +1401,7 @@
       <c r="G11" s="12"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44278</v>
       </c>
@@ -1438,7 +1423,7 @@
       </c>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44279</v>
       </c>
@@ -1460,10 +1445,10 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>6.426388888888888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.655555555555555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44279</v>
       </c>
@@ -1485,10 +1470,10 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>6.426388888888888</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.655555555555555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44279</v>
       </c>
@@ -1510,10 +1495,10 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>5.4854166666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.7145833333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44279</v>
       </c>
@@ -1535,10 +1520,10 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>5.4854166666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.7145833333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44280</v>
       </c>
@@ -1560,10 +1545,10 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>5.6451388888888889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.8743055555555559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44281</v>
       </c>
@@ -1585,10 +1570,10 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>5.6451388888888889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.8743055555555559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44319</v>
       </c>
@@ -1607,7 +1592,7 @@
       </c>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44349</v>
       </c>
@@ -1625,7 +1610,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44349</v>
       </c>
@@ -1643,7 +1628,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44350</v>
       </c>
@@ -1661,7 +1646,7 @@
         <v>0.43750000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44351</v>
       </c>
@@ -1679,7 +1664,7 @@
         <v>0.10416666666666674</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44354</v>
       </c>
@@ -1697,7 +1682,7 @@
         <v>0.15625000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44354</v>
       </c>
@@ -1715,7 +1700,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44355</v>
       </c>
@@ -1733,7 +1718,7 @@
         <v>0.60416666666666674</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44356</v>
       </c>
@@ -1751,7 +1736,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44356</v>
       </c>
@@ -1769,7 +1754,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44356</v>
       </c>
@@ -1787,7 +1772,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44357</v>
       </c>
@@ -1805,7 +1790,7 @@
         <v>0.60416666666666674</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44358</v>
       </c>
@@ -1823,27 +1808,41 @@
         <v>0.39583333333333337</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
       <c r="E32" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -1853,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1863,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1873,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1883,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -1893,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -1903,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1921,13 +1920,13 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A31 A33:A40">
-    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1945,18 +1944,18 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1977,7 +1976,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44348</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>1.6388888888888884</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44352</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44353</v>
       </c>
@@ -2067,7 +2066,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44359</v>
       </c>
@@ -2089,7 +2088,7 @@
       </c>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44360</v>
       </c>
@@ -2111,7 +2110,7 @@
       </c>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44360</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2139,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2149,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2159,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2169,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2179,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2189,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2199,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2209,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2219,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2229,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2239,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2249,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2259,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2269,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2279,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2297,19 +2296,19 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4:A7 A9:A24">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4:A7 A9:A20">
     <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" priority="1"/>
@@ -2330,18 +2329,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2361,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44288</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44300</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>0.69791666666666674</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44321</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>0.16319444444444442</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>44352</v>
       </c>
@@ -2452,7 +2451,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44358</v>
       </c>
@@ -2474,7 +2473,7 @@
       </c>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2488,7 +2487,7 @@
       </c>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2498,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2508,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2518,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2528,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2538,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2548,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2558,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2568,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2578,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2588,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2598,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2608,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2618,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2628,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2638,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2648,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2666,13 +2665,13 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A2 A4 A6:A24">
-    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2 A4 A6:A20">
     <cfRule type="duplicateValues" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
     <cfRule type="duplicateValues" priority="3"/>
@@ -2693,18 +2692,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2725,7 +2724,7 @@
       </c>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44286</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44321</v>
       </c>
@@ -2775,7 +2774,7 @@
         <v>0.85763888888888895</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44348</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>0.45833333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44359</v>
       </c>
@@ -2815,7 +2814,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2829,7 +2828,7 @@
       </c>
       <c r="H6" s="36"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2843,7 +2842,7 @@
       </c>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2853,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2863,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2873,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2883,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2893,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2903,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2913,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2923,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2933,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2943,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2953,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2963,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2973,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2983,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2993,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -3003,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -3021,7 +3020,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A24">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20">
     <cfRule type="duplicateValues" priority="1"/>
@@ -3038,20 +3037,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C227607-00A4-48AA-9A87-27CE805F8079}">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>97.190219999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>Bluetooth Module HC-05</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>IR Emitter and Receiver LED 5mm 940nm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>13</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>OV7670 Camera Module</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>13</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>TCS3200 Color Sensor</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>13</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>US-015 Modulo Sensor de Distância Ultrassónico 3.3 - 5V</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>Módulo Leitor RFID RC522</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>Sensor Sharp 2Y0A21YK</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>52</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>Ficha Shell ou KK 6 vias 2,54mm</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>Terminais para fichas shell ou KK</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>Cartão RFID Mifare 1k S50 compatível Tag 13,56MHz</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>52</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>Step-Down para 5V até 8A 40W com 4 Portas USB</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>Suporte para 1 pilha 18650 c/ fios</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>Interruptor de painel redondo</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>52</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>Botão de pressão preto redondo para painel</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>52</v>
       </c>
@@ -3352,7 +3351,7 @@
         <v>Carregador 3 Baterias 18650 em série - AC 100~240V DC 12,6V 1A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>Cabo DC 0,2m com conector recto 5,2/2,1 (9,5mm)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>Suporte Fusível Auto/F.Pla &gt;50A</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>67</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>Fusivel 3A</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>67</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>Manga Espiral Wrapping 20-60mm</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>82</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>PCB Shield STM32F767ZI</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>84</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>Barra (2x8) fêmea 2,54 mm PCB</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>84</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>Barra (2x10) fêmea 2,54 mm PCB</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>84</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>Barra (2x16) fêmea 2,54 mm PCB</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>84</v>
       </c>
@@ -3513,7 +3512,7 @@
         <v>Barra (2x17) fêmea 2,54 mm PCB</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>84</v>
       </c>
@@ -3531,7 +3530,7 @@
         <v>Barra (2x3) fêmea 2,54 mm PCB</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>84</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>Barra (1x6) fêmea 2,54 mm PCB</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="1"/>
@@ -3559,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="1"/>
@@ -3569,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2712823E-D5F6-453F-B931-11DB7C0F014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4BAE0B-DC81-46A3-B7CB-B00C215D4885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
   <si>
     <t>Day</t>
   </si>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>5.0166666666666666</v>
+        <v>7.2250000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>6.655555555555555</v>
+        <v>8.8638888888888889</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>6.655555555555555</v>
+        <v>8.8638888888888889</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>5.7145833333333336</v>
+        <v>7.9229166666666675</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>5.7145833333333336</v>
+        <v>7.9229166666666675</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>5.8743055555555559</v>
+        <v>8.0826388888888889</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>5.8743055555555559</v>
+        <v>8.0826388888888889</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,30 +1836,48 @@
       <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
       <c r="E33" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>-0.39583333333333331</v>
+        <v>0.60416666666666674</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
       <c r="E34" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.60416666666666674</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
       <c r="E35" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.60416666666666674</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">

--- a/02Others/LogBook.xlsx
+++ b/02Others/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02Sem\LPI\DWR-19\02Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4BAE0B-DC81-46A3-B7CB-B00C215D4885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDFB0CB-D10F-4763-85C5-87F8D681C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{81FA8CF0-04E5-4214-83E0-2D0ED2A04D15}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>Day</t>
   </si>
@@ -1140,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE379889-CFF8-440E-B1CF-7779A89E722A}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H6" s="18">
         <f ca="1">_xlfn.DAYS(MAX(H2:H4), TODAY())</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="H9" s="11">
         <f>COUNT(Tabela1[[#All],[Day]])</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="H10" s="12">
         <f>SUM(Tabela1[[#All],[Duration]])</f>
-        <v>7.2250000000000005</v>
+        <v>7.8291666666666675</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H13" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>8.8638888888888889</v>
+        <v>9.468055555555555</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="H14" s="12">
         <f>$H$10 + TimeTable_Team1!H3</f>
-        <v>8.8638888888888889</v>
+        <v>9.468055555555555</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H15" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>7.9229166666666675</v>
+        <v>8.5270833333333336</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H16" s="12">
         <f>$H$10 + TimeTable_Team2!H3</f>
-        <v>7.9229166666666675</v>
+        <v>8.5270833333333336</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="H17" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>8.0826388888888889</v>
+        <v>8.6868055555555568</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H18" s="12">
         <f>$H$10 + TimeTable_Team3!H3</f>
-        <v>8.0826388888888889</v>
+        <v>8.6868055555555568</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,13 +1881,21 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
       <c r="E36" s="3">
         <f>Tabela1[[#This Row],[End Time]]-Tabela1[[#This Row],[Start Time]]</f>
-        <v>0</v>
+        <v>0.60416666666666674</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
